--- a/23년1차_청년매입임대_공급주택목록(서울지역본부).xlsx
+++ b/23년1차_청년매입임대_공급주택목록(서울지역본부).xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="청년" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">청년!$A$1:$K$433</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="204">
   <si>
     <t>주소</t>
   </si>
@@ -598,16 +599,168 @@
     <t>공급유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>중구오장동(오렌지카운티)</t>
+  </si>
+  <si>
+    <t>지도 </t>
+  </si>
+  <si>
+    <t>홍보물 </t>
+  </si>
+  <si>
+    <t>해당없음</t>
+  </si>
+  <si>
+    <t>청약신청마감</t>
+  </si>
+  <si>
+    <t>용산원효로3가(클라우드나인)</t>
+  </si>
+  <si>
+    <t>용산원효로2가(씨모어)</t>
+  </si>
+  <si>
+    <t>성동도선동(왕십리렉스프리미엄)</t>
+  </si>
+  <si>
+    <t>광진자양동(갤러리하우스)</t>
+  </si>
+  <si>
+    <t>광진중곡동(와이위드미)</t>
+  </si>
+  <si>
+    <t>광진자양동(안틸리아자양)</t>
+  </si>
+  <si>
+    <t>광진화양동(더메종건대)</t>
+  </si>
+  <si>
+    <t>동대문장안동(진성홈타운)</t>
+  </si>
+  <si>
+    <t>동대문회기동(네스트스위트)</t>
+  </si>
+  <si>
+    <t>동대문이문동(자인엠타워)</t>
+  </si>
+  <si>
+    <t>중랑망우동(위성힐하우스)</t>
+  </si>
+  <si>
+    <t>중랑중화동(주함해븐빌)</t>
+  </si>
+  <si>
+    <t>중랑면목동1</t>
+  </si>
+  <si>
+    <t>성북석관동(다원캐슬)</t>
+  </si>
+  <si>
+    <t>성북정릉동(반석영우빌)</t>
+  </si>
+  <si>
+    <t>성북정릉동(형지쉐르빌)</t>
+  </si>
+  <si>
+    <t>성북장위동</t>
+  </si>
+  <si>
+    <t>강북미아동</t>
+  </si>
+  <si>
+    <t>강북수유동(성우울타리)</t>
+  </si>
+  <si>
+    <t>강북수유동(칸타빌수유팰리스)</t>
+  </si>
+  <si>
+    <t>도봉도봉동</t>
+  </si>
+  <si>
+    <t>도봉방학동</t>
+  </si>
+  <si>
+    <t>도봉창동</t>
+  </si>
+  <si>
+    <t>노원공릉동(플라체76)</t>
+  </si>
+  <si>
+    <t>은평역촌동(동산주택홈타운)</t>
+  </si>
+  <si>
+    <t>은평역촌동(예그리나7차)</t>
+  </si>
+  <si>
+    <t>서대문가좌동(DMC갤러리아)</t>
+  </si>
+  <si>
+    <t>서대문대현동(엔트라리움#4)</t>
+  </si>
+  <si>
+    <t>마포공덕동(공덕헤리지움)</t>
+  </si>
+  <si>
+    <t>양천신월동1</t>
+  </si>
+  <si>
+    <t>강서방화동(마곡스카이)</t>
+  </si>
+  <si>
+    <t>강서화곡동1</t>
+  </si>
+  <si>
+    <t>강서방화동(펜타곤스카이)</t>
+  </si>
+  <si>
+    <t>구로고척동1</t>
+  </si>
+  <si>
+    <t>금천시흥동</t>
+  </si>
+  <si>
+    <t>금천독산동1</t>
+  </si>
+  <si>
+    <t>영등포대림동(대정이오스)</t>
+  </si>
+  <si>
+    <t>영등포대림동(파크에비뉴A)</t>
+  </si>
+  <si>
+    <t>영등포영등포동7가(여의도써밋)</t>
+  </si>
+  <si>
+    <t>영등포대림동(다이얼로그737)</t>
+  </si>
+  <si>
+    <t>영등포영등포동1가(명남더블레스)</t>
+  </si>
+  <si>
+    <t>관악신림동1</t>
+  </si>
+  <si>
+    <t>서초양재동(서원빌)</t>
+  </si>
+  <si>
+    <t>모집 인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 건수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.0"/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,6 +799,22 @@
       <color rgb="FF333333"/>
       <name val="Dotum"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -692,7 +861,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -752,13 +921,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD7D7D7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD7D7D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD7D7D7"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF1963D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD7D7D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,7 +985,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -807,7 +1003,7 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,12 +1036,34 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1120,7 +1338,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1128,11 +1346,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K433"/>
+  <dimension ref="A1:M433"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="L434" sqref="L434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
@@ -1145,7 +1363,7 @@
     <col min="8" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" customHeight="1">
+    <row r="1" spans="1:13" ht="24" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -1179,8 +1397,14 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
@@ -1214,8 +1438,16 @@
       <c r="K2" s="10">
         <v>112560</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L2" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M2" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>38</v>
       </c>
@@ -1249,8 +1481,16 @@
       <c r="K3" s="10">
         <v>107820</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L3" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M3" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>38</v>
       </c>
@@ -1284,8 +1524,16 @@
       <c r="K4" s="10">
         <v>107820</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L4" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M4" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>38</v>
       </c>
@@ -1319,8 +1567,16 @@
       <c r="K5" s="10">
         <v>107820</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L5" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M5" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>38</v>
       </c>
@@ -1354,8 +1610,16 @@
       <c r="K6" s="10">
         <v>131080</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L6" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M6" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -1389,8 +1653,16 @@
       <c r="K7" s="10">
         <v>113810</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L7" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M7" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -1424,8 +1696,16 @@
       <c r="K8" s="10">
         <v>107820</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L8" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M8" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>38</v>
       </c>
@@ -1459,8 +1739,16 @@
       <c r="K9" s="10">
         <v>107820</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L9" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M9" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>38</v>
       </c>
@@ -1494,8 +1782,16 @@
       <c r="K10" s="10">
         <v>107820</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L10" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M10" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -1529,8 +1825,16 @@
       <c r="K11" s="10">
         <v>107820</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L11" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M11" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>38</v>
       </c>
@@ -1564,8 +1868,16 @@
       <c r="K12" s="10">
         <v>109390</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L12" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M12" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>38</v>
       </c>
@@ -1599,8 +1911,16 @@
       <c r="K13" s="10">
         <v>114430</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L13" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M13" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>38</v>
       </c>
@@ -1634,8 +1954,16 @@
       <c r="K14" s="10">
         <v>110480</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L14" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M14" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -1669,8 +1997,16 @@
       <c r="K15" s="10">
         <v>110480</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L15" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M15" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>38</v>
       </c>
@@ -1704,8 +2040,16 @@
       <c r="K16" s="10">
         <v>110480</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L16" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M16" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>38</v>
       </c>
@@ -1739,8 +2083,16 @@
       <c r="K17" s="10">
         <v>110480</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L17" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M17" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
@@ -1774,8 +2126,16 @@
       <c r="K18" s="10">
         <v>116980</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L18" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M18" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>38</v>
       </c>
@@ -1809,8 +2169,16 @@
       <c r="K19" s="10">
         <v>134530</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L19" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M19" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
@@ -1844,8 +2212,16 @@
       <c r="K20" s="10">
         <v>110480</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L20" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M20" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>38</v>
       </c>
@@ -1879,8 +2255,16 @@
       <c r="K21" s="10">
         <v>110480</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L21" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M21" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
@@ -1914,8 +2298,16 @@
       <c r="K22" s="10">
         <v>110480</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L22" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M22" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1949,8 +2341,16 @@
       <c r="K23" s="10">
         <v>114430</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L23" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M23" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2384,16 @@
       <c r="K24" s="10">
         <v>110480</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L24" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M24" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>38</v>
       </c>
@@ -2019,8 +2427,16 @@
       <c r="K25" s="10">
         <v>110480</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L25" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M25" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>38</v>
       </c>
@@ -2054,8 +2470,16 @@
       <c r="K26" s="10">
         <v>110480</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L26" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M26" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>38</v>
       </c>
@@ -2089,8 +2513,16 @@
       <c r="K27" s="10">
         <v>110480</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L27" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M27" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
@@ -2124,8 +2556,16 @@
       <c r="K28" s="10">
         <v>110480</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L28" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M28" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>38</v>
       </c>
@@ -2159,8 +2599,16 @@
       <c r="K29" s="10">
         <v>110480</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L29" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M29" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>38</v>
       </c>
@@ -2194,8 +2642,16 @@
       <c r="K30" s="10">
         <v>110480</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L30" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M30" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>38</v>
       </c>
@@ -2229,8 +2685,16 @@
       <c r="K31" s="10">
         <v>112560</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L31" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M31" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>38</v>
       </c>
@@ -2264,8 +2728,16 @@
       <c r="K32" s="10">
         <v>116010</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L32" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M32" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>38</v>
       </c>
@@ -2299,8 +2771,16 @@
       <c r="K33" s="10">
         <v>114440</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L33" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M33" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>38</v>
       </c>
@@ -2334,8 +2814,16 @@
       <c r="K34" s="10">
         <v>114440</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L34" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M34" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A35" s="12" t="s">
         <v>38</v>
       </c>
@@ -2369,8 +2857,16 @@
       <c r="K35" s="10">
         <v>114440</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L35" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M35" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>38</v>
       </c>
@@ -2404,8 +2900,16 @@
       <c r="K36" s="10">
         <v>114440</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L36" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M36" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>38</v>
       </c>
@@ -2439,8 +2943,16 @@
       <c r="K37" s="10">
         <v>116010</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L37" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M37" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A38" s="12" t="s">
         <v>39</v>
       </c>
@@ -2474,8 +2986,16 @@
       <c r="K38" s="10">
         <v>252530</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L38" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M38" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>22</v>
       </c>
@@ -2509,8 +3029,16 @@
       <c r="K39" s="10">
         <v>123120</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L39" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M39" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="12" t="s">
         <v>41</v>
       </c>
@@ -2544,8 +3072,16 @@
       <c r="K40" s="10">
         <v>141890</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L40" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M40" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A41" s="12" t="s">
         <v>41</v>
       </c>
@@ -2579,8 +3115,16 @@
       <c r="K41" s="10">
         <v>147590</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L41" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M41" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>43</v>
       </c>
@@ -2614,8 +3158,16 @@
       <c r="K42" s="10">
         <v>124030</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L42" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M42" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A43" s="13" t="s">
         <v>43</v>
       </c>
@@ -2649,8 +3201,16 @@
       <c r="K43" s="10">
         <v>128850</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L43" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M43" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A44" s="13" t="s">
         <v>46</v>
       </c>
@@ -2684,8 +3244,16 @@
       <c r="K44" s="10">
         <v>229180</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L44" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M44" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A45" s="13" t="s">
         <v>46</v>
       </c>
@@ -2719,8 +3287,16 @@
       <c r="K45" s="10">
         <v>244180</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L45" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M45" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A46" s="13" t="s">
         <v>46</v>
       </c>
@@ -2754,8 +3330,16 @@
       <c r="K46" s="10">
         <v>215150</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L46" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M46" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
@@ -2789,8 +3373,16 @@
       <c r="K47" s="10">
         <v>238170</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L47" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M47" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A48" s="13" t="s">
         <v>46</v>
       </c>
@@ -2824,8 +3416,16 @@
       <c r="K48" s="10">
         <v>229180</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L48" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M48" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A49" s="13" t="s">
         <v>46</v>
       </c>
@@ -2859,8 +3459,16 @@
       <c r="K49" s="10">
         <v>244180</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L49" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M49" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A50" s="13" t="s">
         <v>46</v>
       </c>
@@ -2894,8 +3502,16 @@
       <c r="K50" s="10">
         <v>215150</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L50" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M50" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A51" s="13" t="s">
         <v>46</v>
       </c>
@@ -2929,8 +3545,16 @@
       <c r="K51" s="10">
         <v>238170</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L51" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M51" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A52" s="13" t="s">
         <v>46</v>
       </c>
@@ -2964,8 +3588,16 @@
       <c r="K52" s="10">
         <v>231430</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L52" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M52" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A53" s="13" t="s">
         <v>46</v>
       </c>
@@ -2999,8 +3631,16 @@
       <c r="K53" s="10">
         <v>247350</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L53" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M53" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A54" s="13" t="s">
         <v>46</v>
       </c>
@@ -3034,8 +3674,16 @@
       <c r="K54" s="10">
         <v>217400</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L54" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M54" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A55" s="13" t="s">
         <v>46</v>
       </c>
@@ -3069,8 +3717,16 @@
       <c r="K55" s="10">
         <v>241340</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L55" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M55" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A56" s="13" t="s">
         <v>46</v>
       </c>
@@ -3104,8 +3760,16 @@
       <c r="K56" s="10">
         <v>231430</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L56" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M56" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A57" s="13" t="s">
         <v>46</v>
       </c>
@@ -3139,8 +3803,16 @@
       <c r="K57" s="10">
         <v>247350</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L57" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M57" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A58" s="13" t="s">
         <v>46</v>
       </c>
@@ -3174,8 +3846,16 @@
       <c r="K58" s="10">
         <v>217400</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L58" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M58" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A59" s="13" t="s">
         <v>46</v>
       </c>
@@ -3209,8 +3889,16 @@
       <c r="K59" s="10">
         <v>241340</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L59" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M59" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A60" s="13" t="s">
         <v>46</v>
       </c>
@@ -3244,8 +3932,16 @@
       <c r="K60" s="10">
         <v>231430</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L60" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M60" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A61" s="13" t="s">
         <v>46</v>
       </c>
@@ -3279,8 +3975,16 @@
       <c r="K61" s="10">
         <v>247350</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L61" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M61" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A62" s="13" t="s">
         <v>46</v>
       </c>
@@ -3314,8 +4018,16 @@
       <c r="K62" s="10">
         <v>217400</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L62" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M62" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A63" s="13" t="s">
         <v>46</v>
       </c>
@@ -3349,8 +4061,16 @@
       <c r="K63" s="10">
         <v>241340</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L63" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M63" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A64" s="13" t="s">
         <v>46</v>
       </c>
@@ -3384,8 +4104,16 @@
       <c r="K64" s="10">
         <v>233680</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L64" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M64" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A65" s="13" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +4147,16 @@
       <c r="K65" s="10">
         <v>249600</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L65" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M65" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A66" s="13" t="s">
         <v>46</v>
       </c>
@@ -3454,8 +4190,16 @@
       <c r="K66" s="10">
         <v>218730</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L66" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M66" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A67" s="13" t="s">
         <v>46</v>
       </c>
@@ -3489,8 +4233,16 @@
       <c r="K67" s="10">
         <v>243590</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L67" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M67" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A68" s="13" t="s">
         <v>46</v>
       </c>
@@ -3524,8 +4276,16 @@
       <c r="K68" s="10">
         <v>233680</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L68" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M68" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A69" s="13" t="s">
         <v>46</v>
       </c>
@@ -3559,8 +4319,16 @@
       <c r="K69" s="10">
         <v>249600</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L69" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M69" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A70" s="13" t="s">
         <v>46</v>
       </c>
@@ -3594,8 +4362,16 @@
       <c r="K70" s="10">
         <v>218730</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L70" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M70" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A71" s="13" t="s">
         <v>46</v>
       </c>
@@ -3629,8 +4405,16 @@
       <c r="K71" s="10">
         <v>243590</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L71" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M71" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A72" s="13" t="s">
         <v>46</v>
       </c>
@@ -3664,8 +4448,16 @@
       <c r="K72" s="10">
         <v>233680</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L72" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M72" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A73" s="13" t="s">
         <v>46</v>
       </c>
@@ -3699,8 +4491,16 @@
       <c r="K73" s="10">
         <v>249600</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L73" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M73" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A74" s="13" t="s">
         <v>46</v>
       </c>
@@ -3734,8 +4534,16 @@
       <c r="K74" s="10">
         <v>218730</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L74" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M74" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A75" s="13" t="s">
         <v>46</v>
       </c>
@@ -3769,8 +4577,16 @@
       <c r="K75" s="10">
         <v>243590</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L75" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M75" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A76" s="13" t="s">
         <v>46</v>
       </c>
@@ -3804,8 +4620,16 @@
       <c r="K76" s="10">
         <v>235930</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L76" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M76" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A77" s="13" t="s">
         <v>46</v>
       </c>
@@ -3839,8 +4663,16 @@
       <c r="K77" s="10">
         <v>251850</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L77" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M77" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A78" s="13" t="s">
         <v>46</v>
       </c>
@@ -3874,8 +4706,16 @@
       <c r="K78" s="10">
         <v>220980</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L78" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M78" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A79" s="13" t="s">
         <v>46</v>
       </c>
@@ -3909,8 +4749,16 @@
       <c r="K79" s="10">
         <v>245840</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L79" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M79" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A80" s="13" t="s">
         <v>46</v>
       </c>
@@ -3944,8 +4792,16 @@
       <c r="K80" s="10">
         <v>235930</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L80" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M80" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A81" s="13" t="s">
         <v>46</v>
       </c>
@@ -3979,8 +4835,16 @@
       <c r="K81" s="10">
         <v>251850</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L81" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M81" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A82" s="13" t="s">
         <v>46</v>
       </c>
@@ -4014,8 +4878,16 @@
       <c r="K82" s="10">
         <v>220980</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L82" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M82" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A83" s="13" t="s">
         <v>46</v>
       </c>
@@ -4049,8 +4921,16 @@
       <c r="K83" s="10">
         <v>245840</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L83" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M83" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A84" s="15" t="s">
         <v>28</v>
       </c>
@@ -4084,8 +4964,14 @@
       <c r="K84" s="16">
         <v>146680</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L84" s="6">
+        <v>3</v>
+      </c>
+      <c r="M84" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A85" s="18" t="s">
         <v>28</v>
       </c>
@@ -4119,8 +5005,14 @@
       <c r="K85" s="10">
         <v>117760</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L85" s="6">
+        <v>3</v>
+      </c>
+      <c r="M85" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A86" s="18" t="s">
         <v>28</v>
       </c>
@@ -4154,8 +5046,14 @@
       <c r="K86" s="10">
         <v>102440</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L86" s="6">
+        <v>3</v>
+      </c>
+      <c r="M86" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A87" s="19" t="s">
         <v>28</v>
       </c>
@@ -4189,8 +5087,14 @@
       <c r="K87" s="10">
         <v>128720</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L87" s="6">
+        <v>3</v>
+      </c>
+      <c r="M87" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A88" s="18" t="s">
         <v>53</v>
       </c>
@@ -4224,8 +5128,16 @@
       <c r="K88" s="10">
         <v>156230</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L88" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M88" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A89" s="18" t="s">
         <v>53</v>
       </c>
@@ -4259,8 +5171,16 @@
       <c r="K89" s="10">
         <v>156230</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L89" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M89" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A90" s="18" t="s">
         <v>53</v>
       </c>
@@ -4294,8 +5214,16 @@
       <c r="K90" s="10">
         <v>164450</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L90" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M90" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A91" s="18" t="s">
         <v>54</v>
       </c>
@@ -4329,8 +5257,16 @@
       <c r="K91" s="10">
         <v>171380</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L91" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M91" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A92" s="19" t="s">
         <v>54</v>
       </c>
@@ -4364,8 +5300,16 @@
       <c r="K92" s="10">
         <v>171380</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L92" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M92" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A93" s="19" t="s">
         <v>29</v>
       </c>
@@ -4399,8 +5343,16 @@
       <c r="K93" s="10">
         <v>105020</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L93" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M93" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A94" s="18" t="s">
         <v>56</v>
       </c>
@@ -4434,8 +5386,16 @@
       <c r="K94" s="10">
         <v>109200</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L94" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M94" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A95" s="18" t="s">
         <v>58</v>
       </c>
@@ -4469,8 +5429,14 @@
       <c r="K95" s="10">
         <v>142620</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L95" s="6">
+        <v>9</v>
+      </c>
+      <c r="M95" s="6">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A96" s="19" t="s">
         <v>58</v>
       </c>
@@ -4504,8 +5470,14 @@
       <c r="K96" s="10">
         <v>130040</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L96" s="6">
+        <v>9</v>
+      </c>
+      <c r="M96" s="6">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A97" s="18" t="s">
         <v>58</v>
       </c>
@@ -4539,8 +5511,14 @@
       <c r="K97" s="10">
         <v>142620</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L97" s="6">
+        <v>9</v>
+      </c>
+      <c r="M97" s="6">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A98" s="19" t="s">
         <v>60</v>
       </c>
@@ -4574,8 +5552,16 @@
       <c r="K98" s="10">
         <v>197200</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L98" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M98" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A99" s="19" t="s">
         <v>63</v>
       </c>
@@ -4609,8 +5595,16 @@
       <c r="K99" s="10">
         <v>214440</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L99" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M99" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A100" s="19" t="s">
         <v>63</v>
       </c>
@@ -4644,8 +5638,16 @@
       <c r="K100" s="10">
         <v>211150</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L100" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M100" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A101" s="19" t="s">
         <v>63</v>
       </c>
@@ -4679,8 +5681,16 @@
       <c r="K101" s="10">
         <v>219850</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L101" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M101" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A102" s="19" t="s">
         <v>63</v>
       </c>
@@ -4714,8 +5724,16 @@
       <c r="K102" s="10">
         <v>214440</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L102" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M102" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A103" s="19" t="s">
         <v>63</v>
       </c>
@@ -4749,8 +5767,16 @@
       <c r="K103" s="10">
         <v>211150</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L103" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M103" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A104" s="19" t="s">
         <v>63</v>
       </c>
@@ -4784,8 +5810,16 @@
       <c r="K104" s="10">
         <v>215770</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L104" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M104" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A105" s="19" t="s">
         <v>63</v>
       </c>
@@ -4819,8 +5853,16 @@
       <c r="K105" s="10">
         <v>215770</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L105" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M105" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A106" s="19" t="s">
         <v>63</v>
       </c>
@@ -4854,8 +5896,16 @@
       <c r="K106" s="10">
         <v>214440</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L106" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M106" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A107" s="19" t="s">
         <v>63</v>
       </c>
@@ -4889,8 +5939,16 @@
       <c r="K107" s="10">
         <v>211150</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L107" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M107" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A108" s="19" t="s">
         <v>63</v>
       </c>
@@ -4924,8 +5982,16 @@
       <c r="K108" s="10">
         <v>219850</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L108" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M108" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A109" s="19" t="s">
         <v>63</v>
       </c>
@@ -4959,8 +6025,16 @@
       <c r="K109" s="10">
         <v>214440</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L109" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M109" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A110" s="19" t="s">
         <v>63</v>
       </c>
@@ -4994,8 +6068,16 @@
       <c r="K110" s="10">
         <v>211150</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L110" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M110" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A111" s="19" t="s">
         <v>63</v>
       </c>
@@ -5029,8 +6111,16 @@
       <c r="K111" s="10">
         <v>215770</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L111" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M111" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A112" s="19" t="s">
         <v>63</v>
       </c>
@@ -5064,8 +6154,16 @@
       <c r="K112" s="10">
         <v>215770</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L112" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M112" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A113" s="19" t="s">
         <v>63</v>
       </c>
@@ -5099,8 +6197,16 @@
       <c r="K113" s="10">
         <v>215770</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L113" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M113" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A114" s="19" t="s">
         <v>63</v>
       </c>
@@ -5134,8 +6240,16 @@
       <c r="K114" s="10">
         <v>212070</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L114" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M114" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A115" s="19" t="s">
         <v>63</v>
       </c>
@@ -5169,8 +6283,16 @@
       <c r="K115" s="10">
         <v>220770</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L115" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M115" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A116" s="19" t="s">
         <v>63</v>
       </c>
@@ -5204,8 +6326,16 @@
       <c r="K116" s="10">
         <v>215770</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L116" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M116" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A117" s="19" t="s">
         <v>63</v>
       </c>
@@ -5239,8 +6369,16 @@
       <c r="K117" s="10">
         <v>212070</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L117" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M117" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A118" s="19" t="s">
         <v>63</v>
       </c>
@@ -5274,8 +6412,16 @@
       <c r="K118" s="10">
         <v>216690</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L118" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M118" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A119" s="19" t="s">
         <v>63</v>
       </c>
@@ -5309,8 +6455,16 @@
       <c r="K119" s="10">
         <v>216690</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L119" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M119" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A120" s="19" t="s">
         <v>63</v>
       </c>
@@ -5344,8 +6498,16 @@
       <c r="K120" s="10">
         <v>215770</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L120" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M120" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A121" s="19" t="s">
         <v>63</v>
       </c>
@@ -5379,8 +6541,16 @@
       <c r="K121" s="10">
         <v>212070</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L121" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M121" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A122" s="19" t="s">
         <v>63</v>
       </c>
@@ -5414,8 +6584,16 @@
       <c r="K122" s="10">
         <v>220770</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L122" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M122" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A123" s="19" t="s">
         <v>63</v>
       </c>
@@ -5449,8 +6627,16 @@
       <c r="K123" s="10">
         <v>215770</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L123" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M123" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A124" s="19" t="s">
         <v>63</v>
       </c>
@@ -5484,8 +6670,16 @@
       <c r="K124" s="10">
         <v>212070</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L124" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M124" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A125" s="19" t="s">
         <v>63</v>
       </c>
@@ -5519,8 +6713,16 @@
       <c r="K125" s="10">
         <v>216690</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L125" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M125" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A126" s="19" t="s">
         <v>63</v>
       </c>
@@ -5554,8 +6756,16 @@
       <c r="K126" s="10">
         <v>216690</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L126" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>84</v>
+      </c>
+      <c r="M126" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A127" s="19" t="s">
         <v>65</v>
       </c>
@@ -5589,8 +6799,16 @@
       <c r="K127" s="10">
         <v>338060</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L127" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M127" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A128" s="18" t="s">
         <v>68</v>
       </c>
@@ -5624,8 +6842,16 @@
       <c r="K128" s="10">
         <v>125410</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L128" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M128" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A129" s="18" t="s">
         <v>68</v>
       </c>
@@ -5659,8 +6885,16 @@
       <c r="K129" s="10">
         <v>116170</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L129" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M129" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A130" s="18" t="s">
         <v>68</v>
       </c>
@@ -5694,8 +6928,16 @@
       <c r="K130" s="10">
         <v>115750</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L130" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M130" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A131" s="18" t="s">
         <v>68</v>
       </c>
@@ -5729,8 +6971,16 @@
       <c r="K131" s="10">
         <v>146030</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L131" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M131" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A132" s="18" t="s">
         <v>68</v>
       </c>
@@ -5764,8 +7014,16 @@
       <c r="K132" s="10">
         <v>143210</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L132" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M132" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A133" s="18" t="s">
         <v>68</v>
       </c>
@@ -5799,8 +7057,16 @@
       <c r="K133" s="10">
         <v>143210</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L133" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M133" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A134" s="18" t="s">
         <v>68</v>
       </c>
@@ -5834,8 +7100,16 @@
       <c r="K134" s="10">
         <v>126330</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L134" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M134" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A135" s="18" t="s">
         <v>68</v>
       </c>
@@ -5869,8 +7143,16 @@
       <c r="K135" s="10">
         <v>117080</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L135" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M135" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A136" s="18" t="s">
         <v>68</v>
       </c>
@@ -5904,8 +7186,16 @@
       <c r="K136" s="10">
         <v>115750</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L136" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M136" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A137" s="18" t="s">
         <v>68</v>
       </c>
@@ -5939,8 +7229,16 @@
       <c r="K137" s="10">
         <v>146440</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L137" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M137" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A138" s="18" t="s">
         <v>68</v>
       </c>
@@ -5974,8 +7272,16 @@
       <c r="K138" s="10">
         <v>144120</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L138" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M138" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A139" s="18" t="s">
         <v>68</v>
       </c>
@@ -6009,8 +7315,16 @@
       <c r="K139" s="10">
         <v>144120</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L139" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M139" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A140" s="18" t="s">
         <v>68</v>
       </c>
@@ -6044,8 +7358,16 @@
       <c r="K140" s="10">
         <v>126330</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L140" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M140" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A141" s="18" t="s">
         <v>68</v>
       </c>
@@ -6079,8 +7401,16 @@
       <c r="K141" s="10">
         <v>117080</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L141" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M141" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A142" s="18" t="s">
         <v>68</v>
       </c>
@@ -6114,8 +7444,16 @@
       <c r="K142" s="10">
         <v>115750</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L142" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M142" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A143" s="18" t="s">
         <v>68</v>
       </c>
@@ -6149,8 +7487,16 @@
       <c r="K143" s="10">
         <v>144120</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L143" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M143" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A144" s="18" t="s">
         <v>68</v>
       </c>
@@ -6184,8 +7530,16 @@
       <c r="K144" s="10">
         <v>144120</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L144" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M144" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A145" s="18" t="s">
         <v>68</v>
       </c>
@@ -6219,8 +7573,16 @@
       <c r="K145" s="10">
         <v>118000</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L145" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M145" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A146" s="18" t="s">
         <v>68</v>
       </c>
@@ -6254,8 +7616,16 @@
       <c r="K146" s="10">
         <v>149610</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L146" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M146" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A147" s="18" t="s">
         <v>68</v>
       </c>
@@ -6289,8 +7659,16 @@
       <c r="K147" s="10">
         <v>145040</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L147" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M147" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A148" s="18" t="s">
         <v>68</v>
       </c>
@@ -6324,8 +7702,16 @@
       <c r="K148" s="10">
         <v>140330</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L148" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M148" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A149" s="18" t="s">
         <v>68</v>
       </c>
@@ -6359,8 +7745,16 @@
       <c r="K149" s="10">
         <v>130170</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L149" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M149" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A150" s="18" t="s">
         <v>68</v>
       </c>
@@ -6394,8 +7788,16 @@
       <c r="K150" s="10">
         <v>128830</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L150" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M150" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A151" s="18" t="s">
         <v>68</v>
       </c>
@@ -6429,8 +7831,16 @@
       <c r="K151" s="10">
         <v>162690</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L151" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M151" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A152" s="18" t="s">
         <v>68</v>
       </c>
@@ -6464,8 +7874,16 @@
       <c r="K152" s="10">
         <v>160370</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L152" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M152" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A153" s="18" t="s">
         <v>68</v>
       </c>
@@ -6499,8 +7917,16 @@
       <c r="K153" s="10">
         <v>160370</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L153" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M153" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A154" s="18" t="s">
         <v>68</v>
       </c>
@@ -6534,8 +7960,16 @@
       <c r="K154" s="10">
         <v>140740</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L154" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M154" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A155" s="18" t="s">
         <v>68</v>
       </c>
@@ -6569,8 +8003,16 @@
       <c r="K155" s="10">
         <v>131080</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L155" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M155" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A156" s="18" t="s">
         <v>68</v>
       </c>
@@ -6604,8 +8046,16 @@
       <c r="K156" s="10">
         <v>129250</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L156" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M156" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A157" s="18" t="s">
         <v>68</v>
       </c>
@@ -6639,8 +8089,16 @@
       <c r="K157" s="10">
         <v>160370</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L157" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M157" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A158" s="18" t="s">
         <v>68</v>
       </c>
@@ -6674,8 +8132,16 @@
       <c r="K158" s="10">
         <v>160370</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L158" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M158" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A159" s="18" t="s">
         <v>68</v>
       </c>
@@ -6709,8 +8175,16 @@
       <c r="K159" s="10">
         <v>141660</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L159" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M159" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A160" s="18" t="s">
         <v>68</v>
       </c>
@@ -6744,8 +8218,16 @@
       <c r="K160" s="10">
         <v>131500</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L160" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M160" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A161" s="18" t="s">
         <v>68</v>
       </c>
@@ -6779,8 +8261,16 @@
       <c r="K161" s="10">
         <v>130170</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L161" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M161" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A162" s="18" t="s">
         <v>68</v>
       </c>
@@ -6814,8 +8304,16 @@
       <c r="K162" s="10">
         <v>164030</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L162" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M162" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A163" s="18" t="s">
         <v>68</v>
       </c>
@@ -6849,8 +8347,16 @@
       <c r="K163" s="10">
         <v>161710</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L163" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M163" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A164" s="18" t="s">
         <v>68</v>
       </c>
@@ -6884,8 +8390,16 @@
       <c r="K164" s="10">
         <v>161710</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L164" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M164" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A165" s="18" t="s">
         <v>68</v>
       </c>
@@ -6919,8 +8433,16 @@
       <c r="K165" s="10">
         <v>131500</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L165" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M165" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A166" s="18" t="s">
         <v>68</v>
       </c>
@@ -6954,8 +8476,16 @@
       <c r="K166" s="10">
         <v>130170</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L166" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M166" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A167" s="18" t="s">
         <v>68</v>
       </c>
@@ -6989,8 +8519,16 @@
       <c r="K167" s="10">
         <v>161710</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L167" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M167" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A168" s="18" t="s">
         <v>68</v>
       </c>
@@ -7024,8 +8562,16 @@
       <c r="K168" s="10">
         <v>161710</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L168" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M168" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A169" s="18" t="s">
         <v>68</v>
       </c>
@@ -7059,8 +8605,16 @@
       <c r="K169" s="10">
         <v>131500</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L169" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M169" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A170" s="18" t="s">
         <v>68</v>
       </c>
@@ -7094,8 +8648,16 @@
       <c r="K170" s="10">
         <v>130170</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L170" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M170" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A171" s="18" t="s">
         <v>68</v>
       </c>
@@ -7129,8 +8691,16 @@
       <c r="K171" s="10">
         <v>163040</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L171" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>132</v>
+      </c>
+      <c r="M171" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A172" s="19" t="s">
         <v>30</v>
       </c>
@@ -7164,8 +8734,14 @@
       <c r="K172" s="10">
         <v>95000</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L172" s="6">
+        <v>6</v>
+      </c>
+      <c r="M172" s="6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A173" s="18" t="s">
         <v>30</v>
       </c>
@@ -7199,8 +8775,14 @@
       <c r="K173" s="10">
         <v>97380</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L173" s="6">
+        <v>6</v>
+      </c>
+      <c r="M173" s="6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A174" s="19" t="s">
         <v>74</v>
       </c>
@@ -7234,8 +8816,16 @@
       <c r="K174" s="10">
         <v>183350</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L174" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M174" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A175" s="19" t="s">
         <v>75</v>
       </c>
@@ -7269,8 +8859,14 @@
       <c r="K175" s="10">
         <v>65130</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L175" s="6">
+        <v>3</v>
+      </c>
+      <c r="M175" s="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A176" s="19" t="s">
         <v>75</v>
       </c>
@@ -7304,8 +8900,14 @@
       <c r="K176" s="10">
         <v>69440</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L176" s="6">
+        <v>3</v>
+      </c>
+      <c r="M176" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A177" s="18" t="s">
         <v>26</v>
       </c>
@@ -7339,8 +8941,16 @@
       <c r="K177" s="10">
         <v>73950</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L177" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M177" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A178" s="18" t="s">
         <v>26</v>
       </c>
@@ -7374,8 +8984,16 @@
       <c r="K178" s="10">
         <v>76240</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L178" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M178" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A179" s="18" t="s">
         <v>26</v>
       </c>
@@ -7409,8 +9027,16 @@
       <c r="K179" s="10">
         <v>73920</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L179" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M179" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A180" s="18" t="s">
         <v>26</v>
       </c>
@@ -7444,8 +9070,16 @@
       <c r="K180" s="10">
         <v>76210</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L180" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M180" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A181" s="18" t="s">
         <v>26</v>
       </c>
@@ -7479,8 +9113,16 @@
       <c r="K181" s="10">
         <v>73920</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L181" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M181" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A182" s="19" t="s">
         <v>23</v>
       </c>
@@ -7514,8 +9156,16 @@
       <c r="K182" s="10">
         <v>114800</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L182" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M182" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A183" s="19" t="s">
         <v>24</v>
       </c>
@@ -7549,8 +9199,16 @@
       <c r="K183" s="10">
         <v>184580</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L183" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M183" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A184" s="18" t="s">
         <v>25</v>
       </c>
@@ -7584,8 +9242,16 @@
       <c r="K184" s="10">
         <v>68800</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L184" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M184" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A185" s="19" t="s">
         <v>21</v>
       </c>
@@ -7619,8 +9285,16 @@
       <c r="K185" s="10">
         <v>113470</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L185" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>45</v>
+      </c>
+      <c r="M185" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A186" s="19" t="s">
         <v>21</v>
       </c>
@@ -7654,8 +9328,16 @@
       <c r="K186" s="10">
         <v>113470</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L186" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>45</v>
+      </c>
+      <c r="M186" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A187" s="19" t="s">
         <v>21</v>
       </c>
@@ -7689,8 +9371,16 @@
       <c r="K187" s="10">
         <v>113470</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L187" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>45</v>
+      </c>
+      <c r="M187" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A188" s="19" t="s">
         <v>21</v>
       </c>
@@ -7724,8 +9414,16 @@
       <c r="K188" s="10">
         <v>114110</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L188" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>45</v>
+      </c>
+      <c r="M188" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A189" s="19" t="s">
         <v>21</v>
       </c>
@@ -7759,8 +9457,16 @@
       <c r="K189" s="10">
         <v>113470</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L189" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>45</v>
+      </c>
+      <c r="M189" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A190" s="19" t="s">
         <v>21</v>
       </c>
@@ -7794,8 +9500,16 @@
       <c r="K190" s="10">
         <v>110880</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L190" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>45</v>
+      </c>
+      <c r="M190" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A191" s="19" t="s">
         <v>21</v>
       </c>
@@ -7829,8 +9543,16 @@
       <c r="K191" s="10">
         <v>111940</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L191" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>45</v>
+      </c>
+      <c r="M191" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A192" s="19" t="s">
         <v>21</v>
       </c>
@@ -7864,8 +9586,16 @@
       <c r="K192" s="10">
         <v>110880</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L192" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>45</v>
+      </c>
+      <c r="M192" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A193" s="19" t="s">
         <v>21</v>
       </c>
@@ -7899,8 +9629,16 @@
       <c r="K193" s="10">
         <v>110880</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L193" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>45</v>
+      </c>
+      <c r="M193" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A194" s="19" t="s">
         <v>21</v>
       </c>
@@ -7934,8 +9672,16 @@
       <c r="K194" s="10">
         <v>117760</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L194" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>45</v>
+      </c>
+      <c r="M194" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A195" s="19" t="s">
         <v>21</v>
       </c>
@@ -7969,8 +9715,16 @@
       <c r="K195" s="10">
         <v>110880</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L195" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>45</v>
+      </c>
+      <c r="M195" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A196" s="19" t="s">
         <v>21</v>
       </c>
@@ -8004,8 +9758,16 @@
       <c r="K196" s="10">
         <v>110880</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L196" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>45</v>
+      </c>
+      <c r="M196" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A197" s="19" t="s">
         <v>21</v>
       </c>
@@ -8039,8 +9801,16 @@
       <c r="K197" s="10">
         <v>110880</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L197" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>45</v>
+      </c>
+      <c r="M197" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A198" s="19" t="s">
         <v>21</v>
       </c>
@@ -8074,8 +9844,16 @@
       <c r="K198" s="10">
         <v>110880</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L198" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>45</v>
+      </c>
+      <c r="M198" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A199" s="19" t="s">
         <v>21</v>
       </c>
@@ -8109,8 +9887,16 @@
       <c r="K199" s="10">
         <v>111940</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L199" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>45</v>
+      </c>
+      <c r="M199" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A200" s="19" t="s">
         <v>81</v>
       </c>
@@ -8144,8 +9930,16 @@
       <c r="K200" s="10">
         <v>239830</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L200" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M200" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A201" s="19" t="s">
         <v>81</v>
       </c>
@@ -8179,8 +9973,16 @@
       <c r="K201" s="10">
         <v>229430</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L201" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M201" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A202" s="18" t="s">
         <v>84</v>
       </c>
@@ -8214,8 +10016,14 @@
       <c r="K202" s="10">
         <v>166320</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L202" s="6">
+        <v>9</v>
+      </c>
+      <c r="M202" s="6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A203" s="18" t="s">
         <v>84</v>
       </c>
@@ -8249,8 +10057,14 @@
       <c r="K203" s="10">
         <v>204500</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L203" s="6">
+        <v>9</v>
+      </c>
+      <c r="M203" s="6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A204" s="18" t="s">
         <v>84</v>
       </c>
@@ -8284,8 +10098,14 @@
       <c r="K204" s="10">
         <v>167040</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L204" s="6">
+        <v>9</v>
+      </c>
+      <c r="M204" s="6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A205" s="19" t="s">
         <v>27</v>
       </c>
@@ -8319,8 +10139,16 @@
       <c r="K205" s="10">
         <v>156660</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L205" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M205" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A206" s="19" t="s">
         <v>27</v>
       </c>
@@ -8354,8 +10182,16 @@
       <c r="K206" s="10">
         <v>156660</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L206" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M206" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A207" s="19" t="s">
         <v>89</v>
       </c>
@@ -8389,8 +10225,16 @@
       <c r="K207" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L207" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M207" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A208" s="19" t="s">
         <v>89</v>
       </c>
@@ -8424,8 +10268,16 @@
       <c r="K208" s="10">
         <v>136620</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L208" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M208" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A209" s="19" t="s">
         <v>89</v>
       </c>
@@ -8459,8 +10311,16 @@
       <c r="K209" s="10">
         <v>136620</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L209" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M209" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A210" s="19" t="s">
         <v>89</v>
       </c>
@@ -8494,8 +10354,16 @@
       <c r="K210" s="10">
         <v>136620</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L210" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M210" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A211" s="19" t="s">
         <v>89</v>
       </c>
@@ -8529,8 +10397,16 @@
       <c r="K211" s="10">
         <v>136620</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L211" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M211" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A212" s="19" t="s">
         <v>89</v>
       </c>
@@ -8564,8 +10440,16 @@
       <c r="K212" s="10">
         <v>136620</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L212" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M212" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A213" s="19" t="s">
         <v>89</v>
       </c>
@@ -8599,8 +10483,16 @@
       <c r="K213" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L213" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M213" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A214" s="19" t="s">
         <v>89</v>
       </c>
@@ -8634,8 +10526,16 @@
       <c r="K214" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L214" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M214" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A215" s="19" t="s">
         <v>89</v>
       </c>
@@ -8669,8 +10569,16 @@
       <c r="K215" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L215" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M215" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A216" s="19" t="s">
         <v>89</v>
       </c>
@@ -8704,8 +10612,16 @@
       <c r="K216" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L216" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M216" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A217" s="19" t="s">
         <v>89</v>
       </c>
@@ -8739,8 +10655,16 @@
       <c r="K217" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L217" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M217" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A218" s="19" t="s">
         <v>89</v>
       </c>
@@ -8774,8 +10698,16 @@
       <c r="K218" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L218" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M218" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A219" s="19" t="s">
         <v>89</v>
       </c>
@@ -8809,8 +10741,16 @@
       <c r="K219" s="10">
         <v>136620</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L219" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M219" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A220" s="19" t="s">
         <v>89</v>
       </c>
@@ -8844,8 +10784,16 @@
       <c r="K220" s="10">
         <v>136620</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L220" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M220" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A221" s="19" t="s">
         <v>89</v>
       </c>
@@ -8879,8 +10827,16 @@
       <c r="K221" s="10">
         <v>136620</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L221" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M221" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A222" s="19" t="s">
         <v>89</v>
       </c>
@@ -8914,8 +10870,16 @@
       <c r="K222" s="10">
         <v>136620</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L222" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M222" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A223" s="19" t="s">
         <v>89</v>
       </c>
@@ -8949,8 +10913,16 @@
       <c r="K223" s="10">
         <v>136620</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L223" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M223" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A224" s="19" t="s">
         <v>89</v>
       </c>
@@ -8984,8 +10956,16 @@
       <c r="K224" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L224" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M224" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A225" s="19" t="s">
         <v>89</v>
       </c>
@@ -9019,8 +10999,16 @@
       <c r="K225" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L225" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M225" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A226" s="19" t="s">
         <v>89</v>
       </c>
@@ -9054,8 +11042,16 @@
       <c r="K226" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L226" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M226" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A227" s="19" t="s">
         <v>89</v>
       </c>
@@ -9089,8 +11085,16 @@
       <c r="K227" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L227" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M227" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A228" s="19" t="s">
         <v>89</v>
       </c>
@@ -9124,8 +11128,16 @@
       <c r="K228" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L228" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M228" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A229" s="19" t="s">
         <v>89</v>
       </c>
@@ -9159,8 +11171,16 @@
       <c r="K229" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L229" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M229" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A230" s="19" t="s">
         <v>89</v>
       </c>
@@ -9194,8 +11214,16 @@
       <c r="K230" s="10">
         <v>136620</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L230" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M230" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A231" s="19" t="s">
         <v>89</v>
       </c>
@@ -9229,8 +11257,16 @@
       <c r="K231" s="10">
         <v>136620</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L231" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M231" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A232" s="19" t="s">
         <v>89</v>
       </c>
@@ -9264,8 +11300,16 @@
       <c r="K232" s="10">
         <v>136620</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L232" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M232" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A233" s="19" t="s">
         <v>89</v>
       </c>
@@ -9299,8 +11343,16 @@
       <c r="K233" s="10">
         <v>136620</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L233" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M233" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A234" s="19" t="s">
         <v>89</v>
       </c>
@@ -9334,8 +11386,16 @@
       <c r="K234" s="10">
         <v>136620</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L234" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M234" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A235" s="19" t="s">
         <v>89</v>
       </c>
@@ -9369,8 +11429,16 @@
       <c r="K235" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L235" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M235" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A236" s="19" t="s">
         <v>89</v>
       </c>
@@ -9404,8 +11472,16 @@
       <c r="K236" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L236" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M236" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A237" s="19" t="s">
         <v>89</v>
       </c>
@@ -9439,8 +11515,16 @@
       <c r="K237" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L237" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M237" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A238" s="19" t="s">
         <v>89</v>
       </c>
@@ -9474,8 +11558,16 @@
       <c r="K238" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L238" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M238" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A239" s="19" t="s">
         <v>89</v>
       </c>
@@ -9509,8 +11601,16 @@
       <c r="K239" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L239" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M239" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A240" s="19" t="s">
         <v>89</v>
       </c>
@@ -9544,8 +11644,16 @@
       <c r="K240" s="10">
         <v>137950</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L240" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M240" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A241" s="19" t="s">
         <v>89</v>
       </c>
@@ -9579,8 +11687,16 @@
       <c r="K241" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L241" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M241" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A242" s="19" t="s">
         <v>89</v>
       </c>
@@ -9614,8 +11730,16 @@
       <c r="K242" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L242" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M242" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A243" s="19" t="s">
         <v>89</v>
       </c>
@@ -9649,8 +11773,16 @@
       <c r="K243" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L243" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M243" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A244" s="19" t="s">
         <v>89</v>
       </c>
@@ -9684,8 +11816,16 @@
       <c r="K244" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L244" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M244" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A245" s="19" t="s">
         <v>89</v>
       </c>
@@ -9719,8 +11859,16 @@
       <c r="K245" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L245" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M245" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A246" s="19" t="s">
         <v>89</v>
       </c>
@@ -9754,8 +11902,16 @@
       <c r="K246" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L246" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M246" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A247" s="19" t="s">
         <v>89</v>
       </c>
@@ -9789,8 +11945,16 @@
       <c r="K247" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L247" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M247" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A248" s="19" t="s">
         <v>89</v>
       </c>
@@ -9824,8 +11988,16 @@
       <c r="K248" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L248" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M248" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A249" s="19" t="s">
         <v>89</v>
       </c>
@@ -9859,8 +12031,16 @@
       <c r="K249" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L249" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M249" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A250" s="19" t="s">
         <v>89</v>
       </c>
@@ -9894,8 +12074,16 @@
       <c r="K250" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L250" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M250" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A251" s="19" t="s">
         <v>89</v>
       </c>
@@ -9929,8 +12117,16 @@
       <c r="K251" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L251" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M251" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A252" s="19" t="s">
         <v>89</v>
       </c>
@@ -9964,8 +12160,16 @@
       <c r="K252" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L252" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M252" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A253" s="19" t="s">
         <v>89</v>
       </c>
@@ -9999,8 +12203,16 @@
       <c r="K253" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L253" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M253" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A254" s="19" t="s">
         <v>89</v>
       </c>
@@ -10034,8 +12246,16 @@
       <c r="K254" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L254" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M254" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A255" s="19" t="s">
         <v>89</v>
       </c>
@@ -10069,8 +12289,16 @@
       <c r="K255" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L255" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M255" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A256" s="19" t="s">
         <v>89</v>
       </c>
@@ -10104,8 +12332,16 @@
       <c r="K256" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L256" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M256" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A257" s="19" t="s">
         <v>89</v>
       </c>
@@ -10139,8 +12375,16 @@
       <c r="K257" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L257" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M257" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A258" s="19" t="s">
         <v>89</v>
       </c>
@@ -10174,8 +12418,16 @@
       <c r="K258" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L258" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M258" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A259" s="19" t="s">
         <v>89</v>
       </c>
@@ -10209,8 +12461,16 @@
       <c r="K259" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L259" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M259" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A260" s="19" t="s">
         <v>89</v>
       </c>
@@ -10244,8 +12504,16 @@
       <c r="K260" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L260" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M260" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A261" s="19" t="s">
         <v>89</v>
       </c>
@@ -10279,8 +12547,16 @@
       <c r="K261" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L261" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M261" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A262" s="19" t="s">
         <v>89</v>
       </c>
@@ -10314,8 +12590,16 @@
       <c r="K262" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L262" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M262" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A263" s="19" t="s">
         <v>89</v>
       </c>
@@ -10349,8 +12633,16 @@
       <c r="K263" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L263" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M263" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A264" s="19" t="s">
         <v>89</v>
       </c>
@@ -10384,8 +12676,16 @@
       <c r="K264" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L264" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M264" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" ht="19.5" customHeight="1">
       <c r="A265" s="19" t="s">
         <v>89</v>
       </c>
@@ -10419,8 +12719,16 @@
       <c r="K265" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L265" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M265" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" ht="19.5" customHeight="1">
       <c r="A266" s="19" t="s">
         <v>89</v>
       </c>
@@ -10454,8 +12762,16 @@
       <c r="K266" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L266" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M266" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" ht="19.5" customHeight="1">
       <c r="A267" s="19" t="s">
         <v>89</v>
       </c>
@@ -10489,8 +12805,16 @@
       <c r="K267" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L267" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M267" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" ht="19.5" customHeight="1">
       <c r="A268" s="19" t="s">
         <v>89</v>
       </c>
@@ -10524,8 +12848,16 @@
       <c r="K268" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L268" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M268" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" ht="19.5" customHeight="1">
       <c r="A269" s="19" t="s">
         <v>89</v>
       </c>
@@ -10559,8 +12891,16 @@
       <c r="K269" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L269" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M269" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" ht="19.5" customHeight="1">
       <c r="A270" s="19" t="s">
         <v>89</v>
       </c>
@@ -10594,8 +12934,16 @@
       <c r="K270" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L270" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M270" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" ht="19.5" customHeight="1">
       <c r="A271" s="19" t="s">
         <v>89</v>
       </c>
@@ -10629,8 +12977,16 @@
       <c r="K271" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L271" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M271" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" ht="19.5" customHeight="1">
       <c r="A272" s="19" t="s">
         <v>89</v>
       </c>
@@ -10664,8 +13020,16 @@
       <c r="K272" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L272" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M272" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" ht="19.5" customHeight="1">
       <c r="A273" s="19" t="s">
         <v>89</v>
       </c>
@@ -10699,8 +13063,16 @@
       <c r="K273" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L273" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M273" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A274" s="19" t="s">
         <v>89</v>
       </c>
@@ -10734,8 +13106,16 @@
       <c r="K274" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L274" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M274" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A275" s="19" t="s">
         <v>89</v>
       </c>
@@ -10769,8 +13149,16 @@
       <c r="K275" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L275" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M275" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" ht="19.5" customHeight="1">
       <c r="A276" s="19" t="s">
         <v>89</v>
       </c>
@@ -10804,8 +13192,16 @@
       <c r="K276" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L276" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M276" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" ht="19.5" customHeight="1">
       <c r="A277" s="19" t="s">
         <v>89</v>
       </c>
@@ -10839,8 +13235,16 @@
       <c r="K277" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L277" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M277" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" ht="19.5" customHeight="1">
       <c r="A278" s="19" t="s">
         <v>89</v>
       </c>
@@ -10874,8 +13278,16 @@
       <c r="K278" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L278" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M278" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" ht="19.5" customHeight="1">
       <c r="A279" s="19" t="s">
         <v>89</v>
       </c>
@@ -10909,8 +13321,16 @@
       <c r="K279" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L279" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M279" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" ht="19.5" customHeight="1">
       <c r="A280" s="19" t="s">
         <v>89</v>
       </c>
@@ -10944,8 +13364,16 @@
       <c r="K280" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L280" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M280" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" ht="19.5" customHeight="1">
       <c r="A281" s="19" t="s">
         <v>89</v>
       </c>
@@ -10979,8 +13407,16 @@
       <c r="K281" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L281" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M281" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" ht="19.5" customHeight="1">
       <c r="A282" s="19" t="s">
         <v>89</v>
       </c>
@@ -11014,8 +13450,16 @@
       <c r="K282" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L282" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M282" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" ht="19.5" customHeight="1">
       <c r="A283" s="19" t="s">
         <v>89</v>
       </c>
@@ -11049,8 +13493,16 @@
       <c r="K283" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L283" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M283" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" ht="19.5" customHeight="1">
       <c r="A284" s="19" t="s">
         <v>89</v>
       </c>
@@ -11084,8 +13536,16 @@
       <c r="K284" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L284" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M284" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" ht="19.5" customHeight="1">
       <c r="A285" s="19" t="s">
         <v>89</v>
       </c>
@@ -11119,8 +13579,16 @@
       <c r="K285" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L285" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M285" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" ht="19.5" customHeight="1">
       <c r="A286" s="19" t="s">
         <v>89</v>
       </c>
@@ -11154,8 +13622,16 @@
       <c r="K286" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L286" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M286" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" ht="19.5" customHeight="1">
       <c r="A287" s="19" t="s">
         <v>89</v>
       </c>
@@ -11189,8 +13665,16 @@
       <c r="K287" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L287" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M287" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" ht="19.5" customHeight="1">
       <c r="A288" s="19" t="s">
         <v>89</v>
       </c>
@@ -11224,8 +13708,16 @@
       <c r="K288" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L288" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M288" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" ht="19.5" customHeight="1">
       <c r="A289" s="19" t="s">
         <v>89</v>
       </c>
@@ -11259,8 +13751,16 @@
       <c r="K289" s="10">
         <v>137040</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L289" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M289" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" ht="19.5" customHeight="1">
       <c r="A290" s="19" t="s">
         <v>89</v>
       </c>
@@ -11294,8 +13794,16 @@
       <c r="K290" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L290" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M290" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="19.5" customHeight="1">
       <c r="A291" s="19" t="s">
         <v>89</v>
       </c>
@@ -11329,8 +13837,16 @@
       <c r="K291" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L291" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M291" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="19.5" customHeight="1">
       <c r="A292" s="19" t="s">
         <v>89</v>
       </c>
@@ -11364,8 +13880,16 @@
       <c r="K292" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L292" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M292" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" ht="19.5" customHeight="1">
       <c r="A293" s="19" t="s">
         <v>89</v>
       </c>
@@ -11399,8 +13923,16 @@
       <c r="K293" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L293" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M293" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" ht="19.5" customHeight="1">
       <c r="A294" s="19" t="s">
         <v>89</v>
       </c>
@@ -11434,8 +13966,16 @@
       <c r="K294" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L294" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M294" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" ht="19.5" customHeight="1">
       <c r="A295" s="19" t="s">
         <v>89</v>
       </c>
@@ -11469,8 +14009,16 @@
       <c r="K295" s="10">
         <v>139790</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L295" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>267</v>
+      </c>
+      <c r="M295" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" ht="19.5" customHeight="1">
       <c r="A296" s="18" t="s">
         <v>98</v>
       </c>
@@ -11504,8 +14052,14 @@
       <c r="K296" s="10">
         <v>226400</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L296" s="6">
+        <v>177</v>
+      </c>
+      <c r="M296" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" ht="19.5" customHeight="1">
       <c r="A297" s="18" t="s">
         <v>98</v>
       </c>
@@ -11539,8 +14093,14 @@
       <c r="K297" s="10">
         <v>226400</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L297" s="6">
+        <v>177</v>
+      </c>
+      <c r="M297" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" ht="19.5" customHeight="1">
       <c r="A298" s="18" t="s">
         <v>98</v>
       </c>
@@ -11574,8 +14134,14 @@
       <c r="K298" s="10">
         <v>223500</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L298" s="6">
+        <v>177</v>
+      </c>
+      <c r="M298" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" ht="19.5" customHeight="1">
       <c r="A299" s="18" t="s">
         <v>98</v>
       </c>
@@ -11609,8 +14175,14 @@
       <c r="K299" s="10">
         <v>217240</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L299" s="6">
+        <v>177</v>
+      </c>
+      <c r="M299" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" ht="19.5" customHeight="1">
       <c r="A300" s="18" t="s">
         <v>98</v>
       </c>
@@ -11644,8 +14216,14 @@
       <c r="K300" s="10">
         <v>228730</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L300" s="6">
+        <v>177</v>
+      </c>
+      <c r="M300" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" ht="19.5" customHeight="1">
       <c r="A301" s="18" t="s">
         <v>98</v>
       </c>
@@ -11679,8 +14257,14 @@
       <c r="K301" s="10">
         <v>228730</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L301" s="6">
+        <v>177</v>
+      </c>
+      <c r="M301" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" ht="19.5" customHeight="1">
       <c r="A302" s="18" t="s">
         <v>98</v>
       </c>
@@ -11714,8 +14298,14 @@
       <c r="K302" s="10">
         <v>225460</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L302" s="6">
+        <v>177</v>
+      </c>
+      <c r="M302" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" ht="19.5" customHeight="1">
       <c r="A303" s="18" t="s">
         <v>98</v>
       </c>
@@ -11749,8 +14339,14 @@
       <c r="K303" s="10">
         <v>219550</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L303" s="6">
+        <v>177</v>
+      </c>
+      <c r="M303" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" ht="19.5" customHeight="1">
       <c r="A304" s="18" t="s">
         <v>98</v>
       </c>
@@ -11784,8 +14380,14 @@
       <c r="K304" s="10">
         <v>225460</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L304" s="6">
+        <v>177</v>
+      </c>
+      <c r="M304" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" ht="19.5" customHeight="1">
       <c r="A305" s="18" t="s">
         <v>98</v>
       </c>
@@ -11819,8 +14421,14 @@
       <c r="K305" s="10">
         <v>219550</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L305" s="6">
+        <v>177</v>
+      </c>
+      <c r="M305" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" ht="19.5" customHeight="1">
       <c r="A306" s="18" t="s">
         <v>98</v>
       </c>
@@ -11854,8 +14462,14 @@
       <c r="K306" s="10">
         <v>267670</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L306" s="6">
+        <v>177</v>
+      </c>
+      <c r="M306" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" ht="19.5" customHeight="1">
       <c r="A307" s="18" t="s">
         <v>98</v>
       </c>
@@ -11889,8 +14503,14 @@
       <c r="K307" s="10">
         <v>225460</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L307" s="6">
+        <v>177</v>
+      </c>
+      <c r="M307" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" ht="19.5" customHeight="1">
       <c r="A308" s="18" t="s">
         <v>98</v>
       </c>
@@ -11924,8 +14544,14 @@
       <c r="K308" s="10">
         <v>219550</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L308" s="6">
+        <v>177</v>
+      </c>
+      <c r="M308" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" ht="19.5" customHeight="1">
       <c r="A309" s="18" t="s">
         <v>98</v>
       </c>
@@ -11959,8 +14585,14 @@
       <c r="K309" s="10">
         <v>253640</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L309" s="6">
+        <v>177</v>
+      </c>
+      <c r="M309" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" ht="19.5" customHeight="1">
       <c r="A310" s="18" t="s">
         <v>98</v>
       </c>
@@ -11994,8 +14626,14 @@
       <c r="K310" s="10">
         <v>225460</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L310" s="6">
+        <v>177</v>
+      </c>
+      <c r="M310" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" ht="19.5" customHeight="1">
       <c r="A311" s="18" t="s">
         <v>98</v>
       </c>
@@ -12029,8 +14667,14 @@
       <c r="K311" s="10">
         <v>219550</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L311" s="6">
+        <v>177</v>
+      </c>
+      <c r="M311" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" ht="19.5" customHeight="1">
       <c r="A312" s="18" t="s">
         <v>98</v>
       </c>
@@ -12064,8 +14708,14 @@
       <c r="K312" s="10">
         <v>224060</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L312" s="6">
+        <v>177</v>
+      </c>
+      <c r="M312" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" ht="19.5" customHeight="1">
       <c r="A313" s="18" t="s">
         <v>98</v>
       </c>
@@ -12099,8 +14749,14 @@
       <c r="K313" s="10">
         <v>224060</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L313" s="6">
+        <v>177</v>
+      </c>
+      <c r="M313" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" ht="19.5" customHeight="1">
       <c r="A314" s="18" t="s">
         <v>98</v>
       </c>
@@ -12134,8 +14790,14 @@
       <c r="K314" s="10">
         <v>221340</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L314" s="6">
+        <v>177</v>
+      </c>
+      <c r="M314" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" ht="19.5" customHeight="1">
       <c r="A315" s="18" t="s">
         <v>98</v>
       </c>
@@ -12169,8 +14831,14 @@
       <c r="K315" s="10">
         <v>215230</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L315" s="6">
+        <v>177</v>
+      </c>
+      <c r="M315" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" ht="19.5" customHeight="1">
       <c r="A316" s="18" t="s">
         <v>98</v>
       </c>
@@ -12204,8 +14872,14 @@
       <c r="K316" s="10">
         <v>226540</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L316" s="6">
+        <v>177</v>
+      </c>
+      <c r="M316" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" ht="19.5" customHeight="1">
       <c r="A317" s="18" t="s">
         <v>98</v>
       </c>
@@ -12239,8 +14913,14 @@
       <c r="K317" s="10">
         <v>226540</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L317" s="6">
+        <v>177</v>
+      </c>
+      <c r="M317" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" ht="19.5" customHeight="1">
       <c r="A318" s="18" t="s">
         <v>98</v>
       </c>
@@ -12274,8 +14954,14 @@
       <c r="K318" s="10">
         <v>223140</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L318" s="6">
+        <v>177</v>
+      </c>
+      <c r="M318" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" ht="19.5" customHeight="1">
       <c r="A319" s="18" t="s">
         <v>98</v>
       </c>
@@ -12309,8 +14995,14 @@
       <c r="K319" s="10">
         <v>217390</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L319" s="6">
+        <v>177</v>
+      </c>
+      <c r="M319" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A320" s="18" t="s">
         <v>98</v>
       </c>
@@ -12344,8 +15036,14 @@
       <c r="K320" s="10">
         <v>223140</v>
       </c>
-    </row>
-    <row r="321" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L320" s="6">
+        <v>177</v>
+      </c>
+      <c r="M320" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A321" s="18" t="s">
         <v>98</v>
       </c>
@@ -12379,8 +15077,14 @@
       <c r="K321" s="10">
         <v>217390</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L321" s="6">
+        <v>177</v>
+      </c>
+      <c r="M321" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A322" s="18" t="s">
         <v>98</v>
       </c>
@@ -12414,8 +15118,14 @@
       <c r="K322" s="10">
         <v>264770</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L322" s="6">
+        <v>177</v>
+      </c>
+      <c r="M322" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A323" s="18" t="s">
         <v>98</v>
       </c>
@@ -12449,8 +15159,14 @@
       <c r="K323" s="10">
         <v>223140</v>
       </c>
-    </row>
-    <row r="324" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L323" s="6">
+        <v>177</v>
+      </c>
+      <c r="M323" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A324" s="18" t="s">
         <v>98</v>
       </c>
@@ -12484,8 +15200,14 @@
       <c r="K324" s="10">
         <v>217390</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L324" s="6">
+        <v>177</v>
+      </c>
+      <c r="M324" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A325" s="18" t="s">
         <v>98</v>
       </c>
@@ -12519,8 +15241,14 @@
       <c r="K325" s="10">
         <v>250900</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L325" s="6">
+        <v>177</v>
+      </c>
+      <c r="M325" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A326" s="18" t="s">
         <v>98</v>
       </c>
@@ -12554,8 +15282,14 @@
       <c r="K326" s="10">
         <v>223140</v>
       </c>
-    </row>
-    <row r="327" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L326" s="6">
+        <v>177</v>
+      </c>
+      <c r="M326" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A327" s="18" t="s">
         <v>98</v>
       </c>
@@ -12589,8 +15323,14 @@
       <c r="K327" s="10">
         <v>217390</v>
       </c>
-    </row>
-    <row r="328" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L327" s="6">
+        <v>177</v>
+      </c>
+      <c r="M327" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A328" s="18" t="s">
         <v>98</v>
       </c>
@@ -12624,8 +15364,14 @@
       <c r="K328" s="10">
         <v>255190</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L328" s="6">
+        <v>177</v>
+      </c>
+      <c r="M328" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A329" s="18" t="s">
         <v>98</v>
       </c>
@@ -12659,8 +15405,14 @@
       <c r="K329" s="10">
         <v>197270</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L329" s="6">
+        <v>177</v>
+      </c>
+      <c r="M329" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A330" s="18" t="s">
         <v>98</v>
       </c>
@@ -12694,8 +15446,14 @@
       <c r="K330" s="10">
         <v>255100</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L330" s="6">
+        <v>177</v>
+      </c>
+      <c r="M330" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A331" s="18" t="s">
         <v>98</v>
       </c>
@@ -12729,8 +15487,14 @@
       <c r="K331" s="10">
         <v>257960</v>
       </c>
-    </row>
-    <row r="332" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L331" s="6">
+        <v>177</v>
+      </c>
+      <c r="M331" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A332" s="18" t="s">
         <v>98</v>
       </c>
@@ -12764,8 +15528,14 @@
       <c r="K332" s="10">
         <v>199310</v>
       </c>
-    </row>
-    <row r="333" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L332" s="6">
+        <v>177</v>
+      </c>
+      <c r="M332" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A333" s="18" t="s">
         <v>98</v>
       </c>
@@ -12799,8 +15569,14 @@
       <c r="K333" s="10">
         <v>257370</v>
       </c>
-    </row>
-    <row r="334" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L333" s="6">
+        <v>177</v>
+      </c>
+      <c r="M333" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A334" s="18" t="s">
         <v>98</v>
       </c>
@@ -12834,8 +15610,14 @@
       <c r="K334" s="10">
         <v>257960</v>
       </c>
-    </row>
-    <row r="335" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L334" s="6">
+        <v>177</v>
+      </c>
+      <c r="M334" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A335" s="18" t="s">
         <v>98</v>
       </c>
@@ -12869,8 +15651,14 @@
       <c r="K335" s="10">
         <v>187050</v>
       </c>
-    </row>
-    <row r="336" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L335" s="6">
+        <v>177</v>
+      </c>
+      <c r="M335" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A336" s="18" t="s">
         <v>98</v>
       </c>
@@ -12904,8 +15692,14 @@
       <c r="K336" s="10">
         <v>252830</v>
       </c>
-    </row>
-    <row r="337" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L336" s="6">
+        <v>177</v>
+      </c>
+      <c r="M336" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A337" s="18" t="s">
         <v>98</v>
       </c>
@@ -12939,8 +15733,14 @@
       <c r="K337" s="10">
         <v>257960</v>
       </c>
-    </row>
-    <row r="338" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L337" s="6">
+        <v>177</v>
+      </c>
+      <c r="M337" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A338" s="18" t="s">
         <v>98</v>
       </c>
@@ -12974,8 +15774,14 @@
       <c r="K338" s="10">
         <v>135580</v>
       </c>
-    </row>
-    <row r="339" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L338" s="6">
+        <v>177</v>
+      </c>
+      <c r="M338" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A339" s="18" t="s">
         <v>98</v>
       </c>
@@ -13009,8 +15815,14 @@
       <c r="K339" s="10">
         <v>195940</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L339" s="6">
+        <v>177</v>
+      </c>
+      <c r="M339" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A340" s="18" t="s">
         <v>98</v>
       </c>
@@ -13044,8 +15856,14 @@
       <c r="K340" s="10">
         <v>257960</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L340" s="6">
+        <v>177</v>
+      </c>
+      <c r="M340" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A341" s="18" t="s">
         <v>98</v>
       </c>
@@ -13079,8 +15897,14 @@
       <c r="K341" s="10">
         <v>130850</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L341" s="6">
+        <v>177</v>
+      </c>
+      <c r="M341" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A342" s="18" t="s">
         <v>98</v>
       </c>
@@ -13114,8 +15938,14 @@
       <c r="K342" s="10">
         <v>191820</v>
       </c>
-    </row>
-    <row r="343" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L342" s="6">
+        <v>177</v>
+      </c>
+      <c r="M342" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A343" s="18" t="s">
         <v>98</v>
       </c>
@@ -13149,8 +15979,14 @@
       <c r="K343" s="10">
         <v>220680</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L343" s="6">
+        <v>177</v>
+      </c>
+      <c r="M343" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A344" s="18" t="s">
         <v>98</v>
       </c>
@@ -13184,8 +16020,14 @@
       <c r="K344" s="10">
         <v>220680</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L344" s="6">
+        <v>177</v>
+      </c>
+      <c r="M344" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A345" s="18" t="s">
         <v>98</v>
       </c>
@@ -13219,8 +16061,14 @@
       <c r="K345" s="10">
         <v>222500</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L345" s="6">
+        <v>177</v>
+      </c>
+      <c r="M345" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A346" s="18" t="s">
         <v>98</v>
       </c>
@@ -13254,8 +16102,14 @@
       <c r="K346" s="10">
         <v>220680</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L346" s="6">
+        <v>177</v>
+      </c>
+      <c r="M346" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A347" s="18" t="s">
         <v>98</v>
       </c>
@@ -13289,8 +16143,14 @@
       <c r="K347" s="10">
         <v>222820</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L347" s="6">
+        <v>177</v>
+      </c>
+      <c r="M347" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A348" s="18" t="s">
         <v>98</v>
       </c>
@@ -13324,8 +16184,14 @@
       <c r="K348" s="10">
         <v>222820</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L348" s="6">
+        <v>177</v>
+      </c>
+      <c r="M348" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A349" s="18" t="s">
         <v>98</v>
       </c>
@@ -13359,8 +16225,14 @@
       <c r="K349" s="10">
         <v>224680</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L349" s="6">
+        <v>177</v>
+      </c>
+      <c r="M349" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A350" s="18" t="s">
         <v>98</v>
       </c>
@@ -13394,8 +16266,14 @@
       <c r="K350" s="10">
         <v>222820</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L350" s="6">
+        <v>177</v>
+      </c>
+      <c r="M350" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A351" s="18" t="s">
         <v>98</v>
       </c>
@@ -13429,8 +16307,14 @@
       <c r="K351" s="10">
         <v>222820</v>
       </c>
-    </row>
-    <row r="352" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L351" s="6">
+        <v>177</v>
+      </c>
+      <c r="M351" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" ht="19.5" customHeight="1">
       <c r="A352" s="18" t="s">
         <v>98</v>
       </c>
@@ -13464,8 +16348,14 @@
       <c r="K352" s="10">
         <v>222820</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L352" s="6">
+        <v>177</v>
+      </c>
+      <c r="M352" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A353" s="18" t="s">
         <v>98</v>
       </c>
@@ -13499,8 +16389,14 @@
       <c r="K353" s="10">
         <v>224680</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L353" s="6">
+        <v>177</v>
+      </c>
+      <c r="M353" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A354" s="18" t="s">
         <v>98</v>
       </c>
@@ -13534,8 +16430,14 @@
       <c r="K354" s="10">
         <v>222820</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L354" s="6">
+        <v>177</v>
+      </c>
+      <c r="M354" s="6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A355" s="18" t="s">
         <v>101</v>
       </c>
@@ -13569,8 +16471,16 @@
       <c r="K355" s="10">
         <v>356840</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L355" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>9</v>
+      </c>
+      <c r="M355" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A356" s="18" t="s">
         <v>101</v>
       </c>
@@ -13604,8 +16514,16 @@
       <c r="K356" s="10">
         <v>408790</v>
       </c>
-    </row>
-    <row r="357" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L356" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>9</v>
+      </c>
+      <c r="M356" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A357" s="18" t="s">
         <v>101</v>
       </c>
@@ -13639,8 +16557,16 @@
       <c r="K357" s="10">
         <v>393650</v>
       </c>
-    </row>
-    <row r="358" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L357" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>9</v>
+      </c>
+      <c r="M357" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A358" s="18" t="s">
         <v>104</v>
       </c>
@@ -13674,8 +16600,16 @@
       <c r="K358" s="10">
         <v>196690</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L358" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>9</v>
+      </c>
+      <c r="M358" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A359" s="18" t="s">
         <v>104</v>
       </c>
@@ -13709,8 +16643,16 @@
       <c r="K359" s="10">
         <v>198300</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L359" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>9</v>
+      </c>
+      <c r="M359" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A360" s="18" t="s">
         <v>104</v>
       </c>
@@ -13744,8 +16686,16 @@
       <c r="K360" s="10">
         <v>199900</v>
       </c>
-    </row>
-    <row r="361" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L360" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>9</v>
+      </c>
+      <c r="M360" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A361" s="19" t="s">
         <v>112</v>
       </c>
@@ -13779,8 +16729,16 @@
       <c r="K361" s="10">
         <v>118820</v>
       </c>
-    </row>
-    <row r="362" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L361" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M361" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A362" s="19" t="s">
         <v>113</v>
       </c>
@@ -13814,8 +16772,16 @@
       <c r="K362" s="10">
         <v>174700</v>
       </c>
-    </row>
-    <row r="363" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L362" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M362" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A363" s="18" t="s">
         <v>114</v>
       </c>
@@ -13849,8 +16815,16 @@
       <c r="K363" s="10">
         <v>246680</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L363" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M363" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A364" s="18" t="s">
         <v>115</v>
       </c>
@@ -13884,8 +16858,16 @@
       <c r="K364" s="10">
         <v>79300</v>
       </c>
-    </row>
-    <row r="365" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L364" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M364" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A365" s="18" t="s">
         <v>115</v>
       </c>
@@ -13919,8 +16901,16 @@
       <c r="K365" s="10">
         <v>75080</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L365" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M365" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A366" s="18" t="s">
         <v>115</v>
       </c>
@@ -13954,8 +16944,16 @@
       <c r="K366" s="10">
         <v>75450</v>
       </c>
-    </row>
-    <row r="367" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L366" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M366" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A367" s="18" t="s">
         <v>115</v>
       </c>
@@ -13989,8 +16987,16 @@
       <c r="K367" s="10">
         <v>75450</v>
       </c>
-    </row>
-    <row r="368" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L367" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M367" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
       <c r="A368" s="18" t="s">
         <v>117</v>
       </c>
@@ -14024,8 +17030,14 @@
       <c r="K368" s="10">
         <v>81710</v>
       </c>
-    </row>
-    <row r="369" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L368" s="29">
+        <v>3</v>
+      </c>
+      <c r="M368" s="29">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
       <c r="A369" s="26" t="s">
         <v>148</v>
       </c>
@@ -14059,8 +17071,14 @@
       <c r="K369" s="10">
         <v>138180</v>
       </c>
-    </row>
-    <row r="370" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L369" s="29">
+        <v>6</v>
+      </c>
+      <c r="M369" s="29">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
       <c r="A370" s="26" t="s">
         <v>148</v>
       </c>
@@ -14094,8 +17112,14 @@
       <c r="K370" s="10">
         <v>134590</v>
       </c>
-    </row>
-    <row r="371" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L370" s="29">
+        <v>6</v>
+      </c>
+      <c r="M370" s="29">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" ht="19.5" customHeight="1">
       <c r="A371" s="26" t="s">
         <v>149</v>
       </c>
@@ -14129,8 +17153,16 @@
       <c r="K371" s="10">
         <v>241500</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L371" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M371" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
       <c r="A372" s="26" t="s">
         <v>150</v>
       </c>
@@ -14164,8 +17196,14 @@
       <c r="K372" s="10">
         <v>226440</v>
       </c>
-    </row>
-    <row r="373" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L372" s="29">
+        <v>3</v>
+      </c>
+      <c r="M372" s="29">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" ht="19.5" customHeight="1">
       <c r="A373" s="26" t="s">
         <v>151</v>
       </c>
@@ -14199,8 +17237,16 @@
       <c r="K373" s="10">
         <v>189350</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L373" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M373" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" ht="19.5" customHeight="1">
       <c r="A374" s="26" t="s">
         <v>151</v>
       </c>
@@ -14234,8 +17280,16 @@
       <c r="K374" s="10">
         <v>194170</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L374" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M374" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" ht="19.5" customHeight="1">
       <c r="A375" s="26" t="s">
         <v>152</v>
       </c>
@@ -14269,8 +17323,16 @@
       <c r="K375" s="10">
         <v>235380</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L375" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M375" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" ht="19.5" customHeight="1">
       <c r="A376" s="19" t="s">
         <v>127</v>
       </c>
@@ -14304,8 +17366,16 @@
       <c r="K376" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="377" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L376" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M376" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" ht="19.5" customHeight="1">
       <c r="A377" s="19" t="s">
         <v>127</v>
       </c>
@@ -14339,8 +17409,16 @@
       <c r="K377" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="378" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L377" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M377" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" ht="19.5" customHeight="1">
       <c r="A378" s="19" t="s">
         <v>127</v>
       </c>
@@ -14374,8 +17452,16 @@
       <c r="K378" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="379" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L378" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M378" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" ht="19.5" customHeight="1">
       <c r="A379" s="19" t="s">
         <v>127</v>
       </c>
@@ -14409,8 +17495,16 @@
       <c r="K379" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="380" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L379" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M379" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" ht="19.5" customHeight="1">
       <c r="A380" s="19" t="s">
         <v>127</v>
       </c>
@@ -14444,8 +17538,16 @@
       <c r="K380" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="381" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L380" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M380" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" ht="19.5" customHeight="1">
       <c r="A381" s="19" t="s">
         <v>127</v>
       </c>
@@ -14479,8 +17581,16 @@
       <c r="K381" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="382" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L381" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M381" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" ht="19.5" customHeight="1">
       <c r="A382" s="19" t="s">
         <v>127</v>
       </c>
@@ -14514,8 +17624,16 @@
       <c r="K382" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="383" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L382" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M382" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" ht="19.5" customHeight="1">
       <c r="A383" s="19" t="s">
         <v>127</v>
       </c>
@@ -14549,8 +17667,16 @@
       <c r="K383" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="384" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L383" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M383" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" ht="19.5" customHeight="1">
       <c r="A384" s="19" t="s">
         <v>127</v>
       </c>
@@ -14584,8 +17710,16 @@
       <c r="K384" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L384" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M384" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" ht="19.5" customHeight="1">
       <c r="A385" s="19" t="s">
         <v>127</v>
       </c>
@@ -14619,8 +17753,16 @@
       <c r="K385" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="386" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L385" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M385" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" ht="19.5" customHeight="1">
       <c r="A386" s="19" t="s">
         <v>127</v>
       </c>
@@ -14654,8 +17796,16 @@
       <c r="K386" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L386" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M386" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" ht="19.5" customHeight="1">
       <c r="A387" s="19" t="s">
         <v>127</v>
       </c>
@@ -14689,8 +17839,16 @@
       <c r="K387" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="388" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L387" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M387" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" ht="19.5" customHeight="1">
       <c r="A388" s="19" t="s">
         <v>127</v>
       </c>
@@ -14724,8 +17882,16 @@
       <c r="K388" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="389" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L388" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M388" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" ht="19.5" customHeight="1">
       <c r="A389" s="19" t="s">
         <v>127</v>
       </c>
@@ -14759,8 +17925,16 @@
       <c r="K389" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="390" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L389" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M389" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" ht="19.5" customHeight="1">
       <c r="A390" s="19" t="s">
         <v>127</v>
       </c>
@@ -14794,8 +17968,16 @@
       <c r="K390" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="391" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L390" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M390" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" ht="19.5" customHeight="1">
       <c r="A391" s="19" t="s">
         <v>127</v>
       </c>
@@ -14829,8 +18011,16 @@
       <c r="K391" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="392" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L391" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M391" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" ht="19.5" customHeight="1">
       <c r="A392" s="19" t="s">
         <v>127</v>
       </c>
@@ -14864,8 +18054,16 @@
       <c r="K392" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="393" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L392" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M392" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" ht="19.5" customHeight="1">
       <c r="A393" s="19" t="s">
         <v>127</v>
       </c>
@@ -14899,8 +18097,16 @@
       <c r="K393" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="394" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L393" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M393" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" ht="19.5" customHeight="1">
       <c r="A394" s="19" t="s">
         <v>127</v>
       </c>
@@ -14934,8 +18140,16 @@
       <c r="K394" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="395" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L394" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M394" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" ht="19.5" customHeight="1">
       <c r="A395" s="19" t="s">
         <v>127</v>
       </c>
@@ -14969,8 +18183,16 @@
       <c r="K395" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="396" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L395" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M395" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" ht="19.5" customHeight="1">
       <c r="A396" s="19" t="s">
         <v>127</v>
       </c>
@@ -15004,8 +18226,16 @@
       <c r="K396" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="397" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L396" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M396" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" ht="19.5" customHeight="1">
       <c r="A397" s="19" t="s">
         <v>127</v>
       </c>
@@ -15039,8 +18269,16 @@
       <c r="K397" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="398" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L397" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M397" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" ht="19.5" customHeight="1">
       <c r="A398" s="19" t="s">
         <v>127</v>
       </c>
@@ -15074,8 +18312,16 @@
       <c r="K398" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="399" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L398" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M398" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" ht="19.5" customHeight="1">
       <c r="A399" s="19" t="s">
         <v>127</v>
       </c>
@@ -15109,8 +18355,16 @@
       <c r="K399" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="400" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L399" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M399" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" ht="19.5" customHeight="1">
       <c r="A400" s="19" t="s">
         <v>127</v>
       </c>
@@ -15144,8 +18398,16 @@
       <c r="K400" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="401" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L400" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M400" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" ht="19.5" customHeight="1">
       <c r="A401" s="19" t="s">
         <v>127</v>
       </c>
@@ -15179,8 +18441,16 @@
       <c r="K401" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="402" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L401" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M401" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" ht="19.5" customHeight="1">
       <c r="A402" s="19" t="s">
         <v>127</v>
       </c>
@@ -15214,8 +18484,16 @@
       <c r="K402" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="403" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L402" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M402" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" ht="19.5" customHeight="1">
       <c r="A403" s="19" t="s">
         <v>127</v>
       </c>
@@ -15249,8 +18527,16 @@
       <c r="K403" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="404" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L403" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M403" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" ht="19.5" customHeight="1">
       <c r="A404" s="19" t="s">
         <v>127</v>
       </c>
@@ -15284,8 +18570,16 @@
       <c r="K404" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="405" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L404" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M404" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" ht="19.5" customHeight="1">
       <c r="A405" s="19" t="s">
         <v>127</v>
       </c>
@@ -15319,8 +18613,16 @@
       <c r="K405" s="10">
         <v>226260</v>
       </c>
-    </row>
-    <row r="406" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L405" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M405" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" ht="19.5" customHeight="1">
       <c r="A406" s="19" t="s">
         <v>127</v>
       </c>
@@ -15354,8 +18656,16 @@
       <c r="K406" s="10">
         <v>231680</v>
       </c>
-    </row>
-    <row r="407" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L406" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M406" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" ht="19.5" customHeight="1">
       <c r="A407" s="19" t="s">
         <v>127</v>
       </c>
@@ -15389,8 +18699,16 @@
       <c r="K407" s="10">
         <v>231680</v>
       </c>
-    </row>
-    <row r="408" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L407" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M407" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" ht="19.5" customHeight="1">
       <c r="A408" s="19" t="s">
         <v>127</v>
       </c>
@@ -15424,8 +18742,16 @@
       <c r="K408" s="10">
         <v>231680</v>
       </c>
-    </row>
-    <row r="409" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L408" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M408" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" ht="19.5" customHeight="1">
       <c r="A409" s="19" t="s">
         <v>127</v>
       </c>
@@ -15459,8 +18785,16 @@
       <c r="K409" s="10">
         <v>231680</v>
       </c>
-    </row>
-    <row r="410" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L409" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M409" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" ht="19.5" customHeight="1">
       <c r="A410" s="19" t="s">
         <v>127</v>
       </c>
@@ -15494,8 +18828,16 @@
       <c r="K410" s="10">
         <v>231680</v>
       </c>
-    </row>
-    <row r="411" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L410" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M410" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" ht="19.5" customHeight="1">
       <c r="A411" s="19" t="s">
         <v>127</v>
       </c>
@@ -15529,8 +18871,16 @@
       <c r="K411" s="10">
         <v>231680</v>
       </c>
-    </row>
-    <row r="412" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L411" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="M411" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" ht="19.5" customHeight="1">
       <c r="A412" s="19" t="s">
         <v>130</v>
       </c>
@@ -15564,8 +18914,16 @@
       <c r="K412" s="10">
         <v>164600</v>
       </c>
-    </row>
-    <row r="413" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L412" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M412" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" ht="19.5" customHeight="1">
       <c r="A413" s="19" t="s">
         <v>134</v>
       </c>
@@ -15599,8 +18957,16 @@
       <c r="K413" s="10">
         <v>224640</v>
       </c>
-    </row>
-    <row r="414" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L413" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M413" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" ht="19.5" customHeight="1">
       <c r="A414" s="19" t="s">
         <v>135</v>
       </c>
@@ -15634,8 +19000,16 @@
       <c r="K414" s="10">
         <v>135790</v>
       </c>
-    </row>
-    <row r="415" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L414" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>39</v>
+      </c>
+      <c r="M414" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" ht="19.5" customHeight="1">
       <c r="A415" s="19" t="s">
         <v>135</v>
       </c>
@@ -15669,8 +19043,16 @@
       <c r="K415" s="10">
         <v>137120</v>
       </c>
-    </row>
-    <row r="416" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L415" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>39</v>
+      </c>
+      <c r="M415" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" ht="19.5" customHeight="1">
       <c r="A416" s="19" t="s">
         <v>135</v>
       </c>
@@ -15704,8 +19086,16 @@
       <c r="K416" s="10">
         <v>107160</v>
       </c>
-    </row>
-    <row r="417" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L416" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>39</v>
+      </c>
+      <c r="M416" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" ht="19.5" customHeight="1">
       <c r="A417" s="19" t="s">
         <v>135</v>
       </c>
@@ -15739,8 +19129,16 @@
       <c r="K417" s="10">
         <v>138960</v>
       </c>
-    </row>
-    <row r="418" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L417" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>39</v>
+      </c>
+      <c r="M417" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" ht="19.5" customHeight="1">
       <c r="A418" s="19" t="s">
         <v>135</v>
       </c>
@@ -15774,8 +19172,16 @@
       <c r="K418" s="10">
         <v>108080</v>
       </c>
-    </row>
-    <row r="419" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L418" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>39</v>
+      </c>
+      <c r="M418" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" ht="19.5" customHeight="1">
       <c r="A419" s="19" t="s">
         <v>135</v>
       </c>
@@ -15809,8 +19215,16 @@
       <c r="K419" s="10">
         <v>139370</v>
       </c>
-    </row>
-    <row r="420" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L419" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>39</v>
+      </c>
+      <c r="M419" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" ht="19.5" customHeight="1">
       <c r="A420" s="19" t="s">
         <v>135</v>
       </c>
@@ -15844,8 +19258,16 @@
       <c r="K420" s="10">
         <v>109000</v>
       </c>
-    </row>
-    <row r="421" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L420" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>39</v>
+      </c>
+      <c r="M420" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" ht="19.5" customHeight="1">
       <c r="A421" s="19" t="s">
         <v>135</v>
       </c>
@@ -15879,8 +19301,16 @@
       <c r="K421" s="10">
         <v>139370</v>
       </c>
-    </row>
-    <row r="422" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L421" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>39</v>
+      </c>
+      <c r="M421" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" ht="19.5" customHeight="1">
       <c r="A422" s="19" t="s">
         <v>135</v>
       </c>
@@ -15914,8 +19344,16 @@
       <c r="K422" s="10">
         <v>109000</v>
       </c>
-    </row>
-    <row r="423" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L422" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>39</v>
+      </c>
+      <c r="M422" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" ht="19.5" customHeight="1">
       <c r="A423" s="19" t="s">
         <v>135</v>
       </c>
@@ -15949,8 +19387,16 @@
       <c r="K423" s="10">
         <v>141210</v>
       </c>
-    </row>
-    <row r="424" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L423" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>39</v>
+      </c>
+      <c r="M423" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" ht="19.5" customHeight="1">
       <c r="A424" s="19" t="s">
         <v>135</v>
       </c>
@@ -15984,8 +19430,16 @@
       <c r="K424" s="10">
         <v>109410</v>
       </c>
-    </row>
-    <row r="425" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L424" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>39</v>
+      </c>
+      <c r="M424" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" ht="19.5" customHeight="1">
       <c r="A425" s="19" t="s">
         <v>135</v>
       </c>
@@ -16019,8 +19473,16 @@
       <c r="K425" s="10">
         <v>141210</v>
       </c>
-    </row>
-    <row r="426" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L425" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>39</v>
+      </c>
+      <c r="M425" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" ht="19.5" customHeight="1">
       <c r="A426" s="19" t="s">
         <v>135</v>
       </c>
@@ -16054,8 +19516,16 @@
       <c r="K426" s="10">
         <v>109410</v>
       </c>
-    </row>
-    <row r="427" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L426" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>39</v>
+      </c>
+      <c r="M426" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" ht="19.5" customHeight="1">
       <c r="A427" s="19" t="s">
         <v>137</v>
       </c>
@@ -16089,8 +19559,16 @@
       <c r="K427" s="10">
         <v>161690</v>
       </c>
-    </row>
-    <row r="428" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L427" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M427" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" ht="19.5" customHeight="1">
       <c r="A428" s="19" t="s">
         <v>144</v>
       </c>
@@ -16124,8 +19602,16 @@
       <c r="K428" s="10">
         <v>292700</v>
       </c>
-    </row>
-    <row r="429" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L428" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M428" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" ht="19.5" customHeight="1">
       <c r="A429" s="18" t="s">
         <v>145</v>
       </c>
@@ -16159,8 +19645,16 @@
       <c r="K429" s="10">
         <v>198000</v>
       </c>
-    </row>
-    <row r="430" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L429" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M429" s="6">
+        <f>VLOOKUP($A$2:$A$433,Sheet1!$A$1:$H$47,7,0)</f>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
       <c r="A430" s="19" t="s">
         <v>146</v>
       </c>
@@ -16194,8 +19688,14 @@
       <c r="K430" s="10">
         <v>127920</v>
       </c>
-    </row>
-    <row r="431" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L430" s="29">
+        <v>3</v>
+      </c>
+      <c r="M430" s="29">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" ht="19.5" customHeight="1">
       <c r="A431" s="19" t="s">
         <v>146</v>
       </c>
@@ -16229,8 +19729,14 @@
       <c r="K431" s="10">
         <v>249160</v>
       </c>
-    </row>
-    <row r="432" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L431" s="6">
+        <v>6</v>
+      </c>
+      <c r="M431" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" ht="19.5" customHeight="1">
       <c r="A432" s="19" t="s">
         <v>146</v>
       </c>
@@ -16264,8 +19770,14 @@
       <c r="K432" s="10">
         <v>249160</v>
       </c>
-    </row>
-    <row r="433" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L432" s="6">
+        <v>6</v>
+      </c>
+      <c r="M432" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" ht="19.5" customHeight="1">
       <c r="A433" s="19" t="s">
         <v>146</v>
       </c>
@@ -16298,6 +19810,12 @@
       </c>
       <c r="K433" s="10">
         <v>174390</v>
+      </c>
+      <c r="L433" s="6">
+        <v>3</v>
+      </c>
+      <c r="M433" s="6">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -16306,4 +19824,1339 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="67.5" thickTop="1" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="34">
+        <v>1</v>
+      </c>
+      <c r="F1" s="34">
+        <v>3</v>
+      </c>
+      <c r="G1" s="34">
+        <v>277</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A2" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="29">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29">
+        <v>3</v>
+      </c>
+      <c r="G2" s="29">
+        <v>174</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A3" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="29">
+        <v>36</v>
+      </c>
+      <c r="F3" s="29">
+        <v>108</v>
+      </c>
+      <c r="G3" s="31">
+        <v>4046</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="83.25" thickBot="1">
+      <c r="A4" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="29">
+        <v>3</v>
+      </c>
+      <c r="F4" s="29">
+        <v>9</v>
+      </c>
+      <c r="G4" s="29">
+        <v>795</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A5" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29">
+        <v>3</v>
+      </c>
+      <c r="G5" s="29">
+        <v>373</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A6" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29">
+        <v>3</v>
+      </c>
+      <c r="G6" s="29">
+        <v>253</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A7" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="29">
+        <v>28</v>
+      </c>
+      <c r="F7" s="29">
+        <v>84</v>
+      </c>
+      <c r="G7" s="31">
+        <v>5275</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A8" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="29">
+        <v>44</v>
+      </c>
+      <c r="F8" s="29">
+        <v>132</v>
+      </c>
+      <c r="G8" s="31">
+        <v>4619</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A9" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="29">
+        <v>2</v>
+      </c>
+      <c r="F9" s="29">
+        <v>6</v>
+      </c>
+      <c r="G9" s="29">
+        <v>207</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A10" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="29">
+        <v>3</v>
+      </c>
+      <c r="F10" s="29">
+        <v>9</v>
+      </c>
+      <c r="G10" s="29">
+        <v>312</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A11" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="29">
+        <v>15</v>
+      </c>
+      <c r="F11" s="29">
+        <v>45</v>
+      </c>
+      <c r="G11" s="29">
+        <v>645</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A12" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1</v>
+      </c>
+      <c r="F12" s="29">
+        <v>3</v>
+      </c>
+      <c r="G12" s="29">
+        <v>217</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A13" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29">
+        <v>3</v>
+      </c>
+      <c r="G13" s="29">
+        <v>207</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A14" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="29">
+        <v>4</v>
+      </c>
+      <c r="F14" s="29">
+        <v>12</v>
+      </c>
+      <c r="G14" s="29">
+        <v>210</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A15" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <v>3</v>
+      </c>
+      <c r="G15" s="29">
+        <v>70</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A16" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="29">
+        <v>1</v>
+      </c>
+      <c r="F16" s="29">
+        <v>3</v>
+      </c>
+      <c r="G16" s="29">
+        <v>121</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A17" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="29">
+        <v>1</v>
+      </c>
+      <c r="F17" s="29">
+        <v>3</v>
+      </c>
+      <c r="G17" s="29">
+        <v>103</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A18" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="29">
+        <v>4</v>
+      </c>
+      <c r="F18" s="29">
+        <v>12</v>
+      </c>
+      <c r="G18" s="29">
+        <v>117</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A19" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1</v>
+      </c>
+      <c r="F19" s="29">
+        <v>3</v>
+      </c>
+      <c r="G19" s="29">
+        <v>42</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A20" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="29">
+        <v>1</v>
+      </c>
+      <c r="F20" s="29">
+        <v>3</v>
+      </c>
+      <c r="G20" s="29">
+        <v>93</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="83.25" thickBot="1">
+      <c r="A21" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="29">
+        <v>36</v>
+      </c>
+      <c r="F21" s="29">
+        <v>108</v>
+      </c>
+      <c r="G21" s="31">
+        <v>1593</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A22" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="29">
+        <v>1</v>
+      </c>
+      <c r="F22" s="29">
+        <v>3</v>
+      </c>
+      <c r="G22" s="29">
+        <v>38</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A23" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="29">
+        <v>1</v>
+      </c>
+      <c r="F23" s="29">
+        <v>3</v>
+      </c>
+      <c r="G23" s="29">
+        <v>43</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A24" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="29">
+        <v>1</v>
+      </c>
+      <c r="F24" s="29">
+        <v>3</v>
+      </c>
+      <c r="G24" s="29">
+        <v>42</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A25" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="29">
+        <v>5</v>
+      </c>
+      <c r="F25" s="29">
+        <v>15</v>
+      </c>
+      <c r="G25" s="29">
+        <v>319</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A26" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="29">
+        <v>1</v>
+      </c>
+      <c r="F26" s="29">
+        <v>3</v>
+      </c>
+      <c r="G26" s="29">
+        <v>70</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A27" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="29">
+        <v>13</v>
+      </c>
+      <c r="F27" s="29">
+        <v>39</v>
+      </c>
+      <c r="G27" s="29">
+        <v>974</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A28" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="29">
+        <v>59</v>
+      </c>
+      <c r="F28" s="29">
+        <v>177</v>
+      </c>
+      <c r="G28" s="31">
+        <v>4880</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A29" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="29">
+        <v>89</v>
+      </c>
+      <c r="F29" s="29">
+        <v>267</v>
+      </c>
+      <c r="G29" s="31">
+        <v>4640</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A30" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="29">
+        <v>2</v>
+      </c>
+      <c r="F30" s="29">
+        <v>6</v>
+      </c>
+      <c r="G30" s="29">
+        <v>517</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A31" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="29">
+        <v>1</v>
+      </c>
+      <c r="F31" s="29">
+        <v>3</v>
+      </c>
+      <c r="G31" s="29">
+        <v>68</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A32" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="29">
+        <v>2</v>
+      </c>
+      <c r="F32" s="29">
+        <v>6</v>
+      </c>
+      <c r="G32" s="29">
+        <v>149</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A33" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="29">
+        <v>2</v>
+      </c>
+      <c r="F33" s="29">
+        <v>6</v>
+      </c>
+      <c r="G33" s="29">
+        <v>125</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A34" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="29">
+        <v>2</v>
+      </c>
+      <c r="F34" s="29">
+        <v>6</v>
+      </c>
+      <c r="G34" s="29">
+        <v>122</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A35" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="29">
+        <v>4</v>
+      </c>
+      <c r="F35" s="29">
+        <v>12</v>
+      </c>
+      <c r="G35" s="29">
+        <v>174</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A36" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="29">
+        <v>5</v>
+      </c>
+      <c r="F36" s="29">
+        <v>15</v>
+      </c>
+      <c r="G36" s="29">
+        <v>422</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A37" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="29">
+        <v>40</v>
+      </c>
+      <c r="F37" s="29">
+        <v>120</v>
+      </c>
+      <c r="G37" s="31">
+        <v>2726</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A38" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" s="29">
+        <v>2</v>
+      </c>
+      <c r="F38" s="29">
+        <v>6</v>
+      </c>
+      <c r="G38" s="29">
+        <v>159</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A39" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="29">
+        <v>1</v>
+      </c>
+      <c r="F39" s="29">
+        <v>3</v>
+      </c>
+      <c r="G39" s="29">
+        <v>126</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A40" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="29">
+        <v>2</v>
+      </c>
+      <c r="F40" s="29">
+        <v>6</v>
+      </c>
+      <c r="G40" s="29">
+        <v>223</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A41" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="29">
+        <v>1</v>
+      </c>
+      <c r="F41" s="29">
+        <v>3</v>
+      </c>
+      <c r="G41" s="29">
+        <v>194</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A42" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="29">
+        <v>1</v>
+      </c>
+      <c r="F42" s="29">
+        <v>3</v>
+      </c>
+      <c r="G42" s="29">
+        <v>276</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="83.25" thickBot="1">
+      <c r="A43" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="29">
+        <v>1</v>
+      </c>
+      <c r="F43" s="29">
+        <v>3</v>
+      </c>
+      <c r="G43" s="29">
+        <v>673</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A44" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="29">
+        <v>2</v>
+      </c>
+      <c r="F44" s="29">
+        <v>6</v>
+      </c>
+      <c r="G44" s="29">
+        <v>299</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="83.25" thickBot="1">
+      <c r="A45" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="29">
+        <v>2</v>
+      </c>
+      <c r="F45" s="29">
+        <v>6</v>
+      </c>
+      <c r="G45" s="29">
+        <v>538</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A46" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="29">
+        <v>3</v>
+      </c>
+      <c r="F46" s="29">
+        <v>9</v>
+      </c>
+      <c r="G46" s="29">
+        <v>411</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A47" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="29">
+        <v>3</v>
+      </c>
+      <c r="F47" s="29">
+        <v>9</v>
+      </c>
+      <c r="G47" s="31">
+        <v>1307</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="javascript:mapPop('37.5652528','','%EC%A4%91%EA%B5%AC%EC%98%A4%EC%9E%A5%EB%8F%99(%EC%98%A4%EB%A0%8C%EC%A7%80%EC%B9%B4%EC%9A%B4%ED%8B%B0)','P111400005','P11140');"/>
+    <hyperlink ref="C1" r:id="rId2" display="javascript:ahflPop('1','P11140','','P111400005');"/>
+    <hyperlink ref="B2" r:id="rId3" display="javascript:mapPop('37.5328245','','%EC%9A%A9%EC%82%B0%EC%9B%90%ED%9A%A8%EB%A1%9C3%EA%B0%80(%ED%81%B4%EB%9D%BC%EC%9A%B0%EB%93%9C%EB%82%98%EC%9D%B8)','P111700002','P11170');"/>
+    <hyperlink ref="C2" r:id="rId4" display="javascript:ahflPop('1','P11170','','P111700002');"/>
+    <hyperlink ref="B3" r:id="rId5" display="javascript:mapPop('37.5348831','','%EC%9A%A9%EC%82%B0%EC%9B%90%ED%9A%A8%EB%A1%9C2%EA%B0%80(%EC%94%A8%EB%AA%A8%EC%96%B4)','P111700003','P11170');"/>
+    <hyperlink ref="C3" r:id="rId6" display="javascript:ahflPop('2','P11170','','P111700003');"/>
+    <hyperlink ref="B4" r:id="rId7" display="javascript:mapPop('','','%EC%84%B1%EB%8F%99%EB%8F%84%EC%84%A0%EB%8F%99(%EC%99%95%EC%8B%AD%EB%A6%AC%EB%A0%89%EC%8A%A4%ED%94%84%EB%A6%AC%EB%AF%B8%EC%97%84)','P112000004','P11200');"/>
+    <hyperlink ref="C4" r:id="rId8" display="javascript:ahflPop('0','P11200','','P112000004');"/>
+    <hyperlink ref="B5" r:id="rId9" display="javascript:mapPop('','','%EA%B4%91%EC%A7%84%EC%9E%90%EC%96%91%EB%8F%99(%EA%B0%A4%EB%9F%AC%EB%A6%AC%ED%95%98%EC%9A%B0%EC%8A%A4)','P112150029','P11215');"/>
+    <hyperlink ref="C5" r:id="rId10" display="javascript:ahflPop('0','P11215','','P112150029');"/>
+    <hyperlink ref="B6" r:id="rId11" display="javascript:mapPop('37.5584165','','%EA%B4%91%EC%A7%84%EC%A4%91%EA%B3%A1%EB%8F%99(%EC%99%80%EC%9D%B4%EC%9C%84%EB%93%9C%EB%AF%B8)','P112150020','P11215');"/>
+    <hyperlink ref="C6" r:id="rId12" display="javascript:ahflPop('2','P11215','','P112150020');"/>
+    <hyperlink ref="B7" r:id="rId13" display="javascript:mapPop('','','%EA%B4%91%EC%A7%84%EC%9E%90%EC%96%91%EB%8F%99(%EC%95%88%ED%8B%B8%EB%A6%AC%EC%95%84%EC%9E%90%EC%96%91)','P112150030','P11215');"/>
+    <hyperlink ref="C7" r:id="rId14" display="javascript:ahflPop('0','P11215','','P112150030');"/>
+    <hyperlink ref="B8" r:id="rId15" display="javascript:mapPop('37.547529','','%EA%B4%91%EC%A7%84%ED%99%94%EC%96%91%EB%8F%99(%EB%8D%94%EB%A9%94%EC%A2%85%EA%B1%B4%EB%8C%80)','P112150031','P11215');"/>
+    <hyperlink ref="C8" r:id="rId16" display="javascript:ahflPop('2','P11215','','P112150031');"/>
+    <hyperlink ref="B9" r:id="rId17" display="javascript:mapPop('','','%EB%8F%99%EB%8C%80%EB%AC%B8%EC%9E%A5%EC%95%88%EB%8F%99(%EC%A7%84%EC%84%B1%ED%99%88%ED%83%80%EC%9A%B4)','P112300024','P11230');"/>
+    <hyperlink ref="C9" r:id="rId18" display="javascript:ahflPop('0','P11230','','P112300024');"/>
+    <hyperlink ref="B10" r:id="rId19" display="javascript:mapPop('37.5896872','','%EB%8F%99%EB%8C%80%EB%AC%B8%ED%9A%8C%EA%B8%B0%EB%8F%99(%EB%84%A4%EC%8A%A4%ED%8A%B8%EC%8A%A4%EC%9C%84%ED%8A%B8)','P112300018','P11230');"/>
+    <hyperlink ref="C10" r:id="rId20" display="javascript:ahflPop('2','P11230','','P112300018');"/>
+    <hyperlink ref="B11" r:id="rId21" display="javascript:mapPop('37.5916721','','%EB%8F%99%EB%8C%80%EB%AC%B8%EC%9D%B4%EB%AC%B8%EB%8F%99(%EC%9E%90%EC%9D%B8%EC%97%A0%ED%83%80%EC%9B%8C)','P112300019','P11230');"/>
+    <hyperlink ref="C11" r:id="rId22" display="javascript:ahflPop('4','P11230','','P112300019');"/>
+    <hyperlink ref="B12" r:id="rId23" display="javascript:mapPop('','','%EC%A4%91%EB%9E%91%EB%A7%9D%EC%9A%B0%EB%8F%99(%EC%9C%84%EC%84%B1%ED%9E%90%ED%95%98%EC%9A%B0%EC%8A%A4)','P112600038','P11260');"/>
+    <hyperlink ref="C12" r:id="rId24" display="javascript:ahflPop('0','P11260','','P112600038');"/>
+    <hyperlink ref="B13" r:id="rId25" display="javascript:mapPop('','','%EC%A4%91%EB%9E%91%EC%A4%91%ED%99%94%EB%8F%99(%EC%A3%BC%ED%95%A8%ED%95%B4%EB%B8%90%EB%B9%8C)','P112600042','P11260');"/>
+    <hyperlink ref="C13" r:id="rId26" display="javascript:ahflPop('0','P11260','','P112600042');"/>
+    <hyperlink ref="B14" r:id="rId27" display="javascript:mapPop('','','%EC%A4%91%EB%9E%91%EB%A9%B4%EB%AA%A9%EB%8F%991','P112600019','P11260');"/>
+    <hyperlink ref="C14" r:id="rId28" display="javascript:ahflPop('0','P11260','','P112600019');"/>
+    <hyperlink ref="B15" r:id="rId29" display="javascript:mapPop('37.6052804','','%EC%84%B1%EB%B6%81%EC%84%9D%EA%B4%80%EB%8F%99(%EB%8B%A4%EC%9B%90%EC%BA%90%EC%8A%AC)','P112900029','P11290');"/>
+    <hyperlink ref="C15" r:id="rId30" display="javascript:ahflPop('2','P11290','','P112900029');"/>
+    <hyperlink ref="B16" r:id="rId31" display="javascript:mapPop('','','%EC%84%B1%EB%B6%81%EC%A0%95%EB%A6%89%EB%8F%99(%EB%B0%98%EC%84%9D%EC%98%81%EC%9A%B0%EB%B9%8C)','P112900037','P11290');"/>
+    <hyperlink ref="C16" r:id="rId32" display="javascript:ahflPop('0','P11290','','P112900037');"/>
+    <hyperlink ref="B17" r:id="rId33" display="javascript:mapPop('','','%EC%84%B1%EB%B6%81%EC%A0%95%EB%A6%89%EB%8F%99(%ED%98%95%EC%A7%80%EC%89%90%EB%A5%B4%EB%B9%8C)','P112900036','P11290');"/>
+    <hyperlink ref="C17" r:id="rId34" display="javascript:ahflPop('0','P11290','','P112900036');"/>
+    <hyperlink ref="B18" r:id="rId35" display="javascript:mapPop('','','%EC%84%B1%EB%B6%81%EC%9E%A5%EC%9C%84%EB%8F%99','P112900018','P11290');"/>
+    <hyperlink ref="C18" r:id="rId36" display="javascript:ahflPop('0','P11290','','P112900018');"/>
+    <hyperlink ref="B19" r:id="rId37" display="javascript:mapPop('','','%EA%B0%95%EB%B6%81%EB%AF%B8%EC%95%84%EB%8F%99','P113050024','P11305');"/>
+    <hyperlink ref="C19" r:id="rId38" display="javascript:ahflPop('0','P11305','','P113050024');"/>
+    <hyperlink ref="B20" r:id="rId39" display="javascript:mapPop('','','%EA%B0%95%EB%B6%81%EC%88%98%EC%9C%A0%EB%8F%99(%EC%84%B1%EC%9A%B0%EC%9A%B8%ED%83%80%EB%A6%AC)','P113050030','P11305');"/>
+    <hyperlink ref="C20" r:id="rId40" display="javascript:ahflPop('0','P11305','','P113050030');"/>
+    <hyperlink ref="B21" r:id="rId41" display="javascript:mapPop('','','%EA%B0%95%EB%B6%81%EC%88%98%EC%9C%A0%EB%8F%99(%EC%B9%B8%ED%83%80%EB%B9%8C%EC%88%98%EC%9C%A0%ED%8C%B0%EB%A6%AC%EC%8A%A4)','P113050032','P11305');"/>
+    <hyperlink ref="C21" r:id="rId42" display="javascript:ahflPop('0','P11305','','P113050032');"/>
+    <hyperlink ref="B22" r:id="rId43" display="javascript:mapPop('','','%EB%8F%84%EB%B4%89%EB%8F%84%EB%B4%89%EB%8F%99','P113200021','P11320');"/>
+    <hyperlink ref="C22" r:id="rId44" display="javascript:ahflPop('0','P11320','','P113200021');"/>
+    <hyperlink ref="B23" r:id="rId45" display="javascript:mapPop('','','%EB%8F%84%EB%B4%89%EB%B0%A9%ED%95%99%EB%8F%99','P113200020','P11320');"/>
+    <hyperlink ref="C23" r:id="rId46" display="javascript:ahflPop('0','P11320','','P113200020');"/>
+    <hyperlink ref="B24" r:id="rId47" display="javascript:mapPop('','','%EB%8F%84%EB%B4%89%EC%B0%BD%EB%8F%99','P113200019','P11320');"/>
+    <hyperlink ref="C24" r:id="rId48" display="javascript:ahflPop('0','P11320','','P113200019');"/>
+    <hyperlink ref="B25" r:id="rId49" display="javascript:mapPop('37.6188991','','%EB%85%B8%EC%9B%90%EA%B3%B5%EB%A6%89%EB%8F%99(%ED%94%8C%EB%9D%BC%EC%B2%B476)','P113500016','P11350');"/>
+    <hyperlink ref="C25" r:id="rId50" display="javascript:ahflPop('2','P11350','','P113500016');"/>
+    <hyperlink ref="B26" r:id="rId51" display="javascript:mapPop('','','%EC%9D%80%ED%8F%89%EC%97%AD%EC%B4%8C%EB%8F%99(%EB%8F%99%EC%82%B0%EC%A3%BC%ED%83%9D%ED%99%88%ED%83%80%EC%9A%B4)','P113800038','P11380');"/>
+    <hyperlink ref="C26" r:id="rId52" display="javascript:ahflPop('0','P11380','','P113800038');"/>
+    <hyperlink ref="B27" r:id="rId53" display="javascript:mapPop('37.601565','','%EC%9D%80%ED%8F%89%EC%97%AD%EC%B4%8C%EB%8F%99(%EC%98%88%EA%B7%B8%EB%A6%AC%EB%82%987%EC%B0%A8)','P113800039','P11380');"/>
+    <hyperlink ref="C27" r:id="rId54" display="javascript:ahflPop('1','P11380','','P113800039');"/>
+    <hyperlink ref="B28" r:id="rId55" display="javascript:mapPop('','','%EC%84%9C%EB%8C%80%EB%AC%B8%EA%B0%80%EC%A2%8C%EB%8F%99(DMC%EA%B0%A4%EB%9F%AC%EB%A6%AC%EC%95%84)','P114100009','P11410');"/>
+    <hyperlink ref="C28" r:id="rId56" display="javascript:ahflPop('0','P11410','','P114100009');"/>
+    <hyperlink ref="B29" r:id="rId57" location="4)','P114100008','P11410');" display="javascript:mapPop('37.5582385','','%EC%84%9C%EB%8C%80%EB%AC%B8%EB%8C%80%ED%98%84%EB%8F%99(%EC%97%94%ED%8A%B8%EB%9D%BC%EB%A6%AC%EC%9B%80 - 4)','P114100008','P11410');"/>
+    <hyperlink ref="C29" r:id="rId58" display="javascript:ahflPop('1','P11410','','P114100008');"/>
+    <hyperlink ref="B30" r:id="rId59" display="javascript:mapPop('37.5487890','','%EB%A7%88%ED%8F%AC%EA%B3%B5%EB%8D%95%EB%8F%99(%EA%B3%B5%EB%8D%95%ED%97%A4%EB%A6%AC%EC%A7%80%EC%9B%80)','P114400008','P11440');"/>
+    <hyperlink ref="C30" r:id="rId60" display="javascript:ahflPop('5','P11440','','P114400008');"/>
+    <hyperlink ref="B31" r:id="rId61" display="javascript:mapPop('37.5356647','','%EC%96%91%EC%B2%9C%EC%8B%A0%EC%9B%94%EB%8F%991','P114700008','P11470');"/>
+    <hyperlink ref="C31" r:id="rId62" display="javascript:ahflPop('1','P11470','','P114700008');"/>
+    <hyperlink ref="B32" r:id="rId63" display="javascript:mapPop('','','%EA%B0%95%EC%84%9C%EA%B0%80%EC%96%91%EB%8F%99(%ED%94%8C%EB%9E%98%ED%8B%B0%EB%85%B8)','P115000027','P11500');"/>
+    <hyperlink ref="C32" r:id="rId64" display="javascript:ahflPop('0','P11500','','P115000027');"/>
+    <hyperlink ref="B33" r:id="rId65" display="javascript:mapPop('','','%EA%B0%95%EC%84%9C%EB%B0%A9%ED%99%94%EB%8F%99(%EB%A7%88%EA%B3%A1%EC%8A%A4%EC%B9%B4%EC%9D%B4)','P115000012','P11500');"/>
+    <hyperlink ref="C33" r:id="rId66" display="javascript:ahflPop('0','P11500','','P115000012');"/>
+    <hyperlink ref="B34" r:id="rId67" display="javascript:mapPop('','','%EA%B0%95%EC%84%9C%ED%99%94%EA%B3%A1%EB%8F%99(%EB%A0%88%EB%AA%AC%ED%8A%B8%EB%A6%AC%EC%A7%80%EC%9B%80)','P115000014','P11500');"/>
+    <hyperlink ref="C34" r:id="rId68" display="javascript:ahflPop('0','P11500','','P115000014');"/>
+    <hyperlink ref="B35" r:id="rId69" display="javascript:mapPop('37.5369615','','%EA%B0%95%EC%84%9C%ED%99%94%EA%B3%A1%EB%8F%991','P115000013','P11500');"/>
+    <hyperlink ref="C35" r:id="rId70" display="javascript:ahflPop('1','P11500','','P115000013');"/>
+    <hyperlink ref="B36" r:id="rId71" display="javascript:mapPop('','','%EA%B0%95%EC%84%9C%ED%99%94%EA%B3%A1%EB%8F%99(SJ%EB%9D%BC%EB%B2%A8%EB%9D%BC)','P115000024','P11500');"/>
+    <hyperlink ref="C36" r:id="rId72" display="javascript:ahflPop('0','P11500','','P115000024');"/>
+    <hyperlink ref="B37" r:id="rId73" display="javascript:mapPop('','','%EA%B0%95%EC%84%9C%EB%B0%A9%ED%99%94%EB%8F%99(%ED%8E%9C%ED%83%80%EA%B3%A4%EC%8A%A4%EC%B9%B4%EC%9D%B4)','P115000028','P11500');"/>
+    <hyperlink ref="C37" r:id="rId74" display="javascript:ahflPop('0','P11500','','P115000028');"/>
+    <hyperlink ref="B38" r:id="rId75" display="javascript:mapPop('37.5068093','','%EA%B5%AC%EB%A1%9C%EA%B3%A0%EC%B2%99%EB%8F%991','P115300008','P11530');"/>
+    <hyperlink ref="C38" r:id="rId76" display="javascript:ahflPop('1','P11530','','P115300008');"/>
+    <hyperlink ref="B39" r:id="rId77" display="javascript:mapPop('37.4519314','','%EA%B8%88%EC%B2%9C%EC%8B%9C%ED%9D%A5%EB%8F%99','P115450007','P11545');"/>
+    <hyperlink ref="C39" r:id="rId78" display="javascript:ahflPop('1','P11545','','P115450007');"/>
+    <hyperlink ref="B40" r:id="rId79" display="javascript:mapPop('37.4676262','','%EA%B8%88%EC%B2%9C%EB%8F%85%EC%82%B0%EB%8F%991','P115450005','P11545');"/>
+    <hyperlink ref="C40" r:id="rId80" display="javascript:ahflPop('2','P11545','','P115450005');"/>
+    <hyperlink ref="B41" r:id="rId81" display="javascript:mapPop('','','%EC%98%81%EB%93%B1%ED%8F%AC%EB%8C%80%EB%A6%BC%EB%8F%99(%EB%8C%80%EC%A0%95%EC%9D%B4%EC%98%A4%EC%8A%A4)','P115600015','P11560');"/>
+    <hyperlink ref="C41" r:id="rId82" display="javascript:ahflPop('0','P11560','','P115600015');"/>
+    <hyperlink ref="B42" r:id="rId83" display="javascript:mapPop('','','%EC%98%81%EB%93%B1%ED%8F%AC%EB%8C%80%EB%A6%BC%EB%8F%99(%ED%8C%8C%ED%81%AC%EC%97%90%EB%B9%84%EB%89%B4A)','P115600011','P11560');"/>
+    <hyperlink ref="C42" r:id="rId84" display="javascript:ahflPop('0','P11560','','P115600011');"/>
+    <hyperlink ref="B43" r:id="rId85" display="javascript:mapPop('37.5238837','','%EC%98%81%EB%93%B1%ED%8F%AC%EC%98%81%EB%93%B1%ED%8F%AC%EB%8F%997%EA%B0%80(%EC%97%AC%EC%9D%98%EB%8F%84%EC%8D%A8%EB%B0%8B)','P115600006','P11560');"/>
+    <hyperlink ref="C43" r:id="rId86" display="javascript:ahflPop('1','P11560','','P115600006');"/>
+    <hyperlink ref="B44" r:id="rId87" display="javascript:mapPop('','','%EC%98%81%EB%93%B1%ED%8F%AC%EB%8C%80%EB%A6%BC%EB%8F%99(%EB%8B%A4%EC%9D%B4%EC%96%BC%EB%A1%9C%EA%B7%B8737)','P115600014','P11560');"/>
+    <hyperlink ref="C44" r:id="rId88" display="javascript:ahflPop('0','P11560','','P115600014');"/>
+    <hyperlink ref="B45" r:id="rId89" display="javascript:mapPop('37.5171475','','%EC%98%81%EB%93%B1%ED%8F%AC%EC%98%81%EB%93%B1%ED%8F%AC%EB%8F%991%EA%B0%80(%EB%AA%85%EB%82%A8%EB%8D%94%EB%B8%94%EB%A0%88%EC%8A%A4)','P115600010','P11560');"/>
+    <hyperlink ref="C45" r:id="rId90" display="javascript:ahflPop('1','P11560','','P115600010');"/>
+    <hyperlink ref="B46" r:id="rId91" display="javascript:mapPop('37.4727648','','%EA%B4%80%EC%95%85%EC%8B%A0%EB%A6%BC%EB%8F%991','P116200004','P11620');"/>
+    <hyperlink ref="C46" r:id="rId92" display="javascript:ahflPop('2','P11620','','P116200004');"/>
+    <hyperlink ref="B47" r:id="rId93" display="javascript:mapPop('37.470404','','%EC%84%9C%EC%B4%88%EC%96%91%EC%9E%AC%EB%8F%99(%EC%84%9C%EC%9B%90%EB%B9%8C)','P116500011','P11650');"/>
+    <hyperlink ref="C47" r:id="rId94" display="javascript:ahflPop('2','P11650','','P116500011');"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId95"/>
+</worksheet>
 </file>